--- a/数据.xlsx
+++ b/数据.xlsx
@@ -225,12 +225,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="h:mm;@"/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="h:mm;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -283,14 +283,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,9 +312,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,17 +344,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -347,14 +392,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -368,7 +405,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -376,37 +413,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,13 +421,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,13 +513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +531,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,19 +585,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,73 +609,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,6 +735,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -746,6 +761,32 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -767,50 +808,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,22 +819,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -846,100 +846,100 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -948,19 +948,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1001,16 +1001,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1040,40 +1040,40 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1091,13 +1091,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1483,7 +1483,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="Z18" sqref="Z18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="N2" s="2" t="str">
         <f ca="1" t="shared" ref="N2:N12" si="0">CHAR(RAND()*3+65)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="3" ht="25.05" customHeight="1" spans="1:14">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="N3" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="4" ht="25.05" customHeight="1" spans="1:14">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="N6" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="7" ht="25.05" customHeight="1" spans="1:14">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="N8" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="9" ht="25.05" customHeight="1" spans="1:14">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="N10" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="11" ht="25.05" customHeight="1" spans="1:14">
@@ -1985,7 +1985,7 @@
       </c>
       <c r="N11" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="12" ht="25.05" customHeight="1" spans="1:14">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="N12" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="13" ht="25.05" customHeight="1" spans="1:14">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="N13" s="2" t="str">
         <f ca="1" t="shared" ref="N13:N22" si="1">CHAR(RAND()*3+65)</f>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="14" ht="25.05" customHeight="1" spans="1:14">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="N15" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="16" ht="25.05" customHeight="1" spans="1:14">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="N19" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="20" ht="25.05" customHeight="1" spans="1:14">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="N20" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="21" ht="25.05" customHeight="1" spans="1:14">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="N21" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="22" ht="25.05" customHeight="1" spans="1:14">
@@ -2524,7 +2524,7 @@
         <v>10.9666666666667</v>
       </c>
       <c r="N23" s="2" t="str">
-        <f ca="1" t="shared" ref="N23:N35" si="2">CHAR(RAND()*3+65)</f>
+        <f ca="1" t="shared" ref="N23:N37" si="2">CHAR(RAND()*3+65)</f>
         <v>A</v>
       </c>
     </row>
@@ -2570,7 +2570,7 @@
       </c>
       <c r="N24" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="25" ht="25.05" customHeight="1" spans="1:14">
@@ -2705,7 +2705,7 @@
       </c>
       <c r="N27" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="28" ht="25.05" customHeight="1" spans="1:14">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="N28" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="29" ht="25.05" customHeight="1" spans="1:14">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="N30" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="31" ht="25.05" customHeight="1" spans="1:14">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="N31" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="32" ht="25.05" customHeight="1" spans="1:14">
@@ -2930,7 +2930,7 @@
       </c>
       <c r="N32" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="33" ht="25.05" customHeight="1" spans="1:14">
@@ -3020,7 +3020,7 @@
       </c>
       <c r="N34" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="35" ht="25.05" customHeight="1" spans="1:14">
@@ -3109,8 +3109,8 @@
         <v>16.6166666666667</v>
       </c>
       <c r="N36" s="2" t="str">
-        <f ca="1">CHAR(RAND()*3+65)</f>
-        <v>A</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>B</v>
       </c>
     </row>
     <row r="37" ht="25.05" customHeight="1" spans="1:14">
@@ -3154,8 +3154,8 @@
         <v>13.5833333333333</v>
       </c>
       <c r="N37" s="2" t="str">
-        <f ca="1">CHAR(RAND()*3+65)</f>
-        <v>A</v>
+        <f ca="1" t="shared" si="2"/>
+        <v>B</v>
       </c>
     </row>
   </sheetData>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -146,10 +146,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="h:mm;@"/>
@@ -200,97 +200,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -300,6 +210,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,6 +238,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -330,7 +285,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,7 +411,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,7 +441,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,61 +507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,13 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,37 +537,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,21 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -651,17 +636,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,27 +695,31 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -732,10 +732,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -747,130 +747,130 @@
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,7 +1372,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="N2" s="2" t="str">
         <f ca="1" t="shared" ref="N2:N12" si="0">CHAR(RAND()*3+65)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="3" ht="25.05" customHeight="1" spans="1:14">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="N4" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="5" ht="25.05" customHeight="1" spans="1:14">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="N5" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="6" ht="25.05" customHeight="1" spans="1:14">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="N6" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="7" ht="25.05" customHeight="1" spans="1:14">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="N8" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="9" ht="25.05" customHeight="1" spans="1:14">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="N9" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="10" ht="25.05" customHeight="1" spans="1:14">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="N11" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="12" ht="25.05" customHeight="1" spans="1:14">
@@ -1919,7 +1919,7 @@
       </c>
       <c r="N12" s="2" t="str">
         <f ca="1" t="shared" si="0"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="13" ht="25.05" customHeight="1" spans="1:14">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="N14" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="15" ht="25.05" customHeight="1" spans="1:14">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="N15" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="16" ht="25.05" customHeight="1" spans="1:14">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="N16" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="17" ht="25.05" customHeight="1" spans="1:14">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="N17" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="18" ht="25.05" customHeight="1" spans="1:14">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="N19" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="20" ht="25.05" customHeight="1" spans="1:14">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="N20" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="21" ht="25.05" customHeight="1" spans="1:14">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="N22" s="2" t="str">
         <f ca="1" t="shared" si="1"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
     <row r="23" ht="25.05" customHeight="1" spans="1:14">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="N23" s="2" t="str">
         <f ca="1" t="shared" ref="N23:N37" si="2">CHAR(RAND()*3+65)</f>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="24" ht="25.05" customHeight="1" spans="1:14">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="N24" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>C</v>
+        <v>A</v>
       </c>
     </row>
     <row r="25" ht="25.05" customHeight="1" spans="1:14">
@@ -2504,7 +2504,7 @@
       </c>
       <c r="N25" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="26" ht="25.05" customHeight="1" spans="1:14">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="N26" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="27" ht="25.05" customHeight="1" spans="1:14">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="N27" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="28" ht="25.05" customHeight="1" spans="1:14">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="N28" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>B</v>
+        <v>A</v>
       </c>
     </row>
     <row r="29" ht="25.05" customHeight="1" spans="1:14">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="N30" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="31" ht="25.05" customHeight="1" spans="1:14">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="N31" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="32" ht="25.05" customHeight="1" spans="1:14">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="N32" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>C</v>
+        <v>B</v>
       </c>
     </row>
     <row r="33" ht="25.05" customHeight="1" spans="1:14">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="N34" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="35" ht="25.05" customHeight="1" spans="1:14">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="N35" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>B</v>
+        <v>C</v>
       </c>
     </row>
     <row r="36" ht="25.05" customHeight="1" spans="1:14">
@@ -2999,7 +2999,7 @@
       </c>
       <c r="N36" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>A</v>
+        <v>C</v>
       </c>
     </row>
     <row r="37" ht="25.05" customHeight="1" spans="1:14">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="N37" s="2" t="str">
         <f ca="1" t="shared" si="2"/>
-        <v>A</v>
+        <v>B</v>
       </c>
     </row>
   </sheetData>

--- a/数据.xlsx
+++ b/数据.xlsx
@@ -4,48 +4,50 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17845" windowHeight="8725"/>
+    <workbookView windowWidth="17845" windowHeight="8725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="重要的" sheetId="19" r:id="rId2"/>
-    <sheet name="Sheet1 (11)" sheetId="18" r:id="rId3"/>
-    <sheet name="Sheet1 (10)" sheetId="17" r:id="rId4"/>
-    <sheet name="Sheet1 (9)" sheetId="16" r:id="rId5"/>
-    <sheet name="123" sheetId="15" r:id="rId6"/>
-    <sheet name="Sheet1 (5)" sheetId="14" r:id="rId7"/>
-    <sheet name="重要" sheetId="13" r:id="rId8"/>
-    <sheet name="Sheet1 (2)" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet1 (8)" sheetId="11" r:id="rId10"/>
-    <sheet name="Sheet1 (7)" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet1 (6)" sheetId="8" r:id="rId12"/>
-    <sheet name="Sheet1 (4)" sheetId="6" r:id="rId13"/>
-    <sheet name="Sheet1 (3)" sheetId="5" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId15"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId16"/>
+    <sheet name="改版前" sheetId="20" r:id="rId2"/>
+    <sheet name="重要的" sheetId="19" r:id="rId3"/>
+    <sheet name="Sheet1 (11)" sheetId="18" r:id="rId4"/>
+    <sheet name="Sheet1 (10)" sheetId="17" r:id="rId5"/>
+    <sheet name="Sheet1 (9)" sheetId="16" r:id="rId6"/>
+    <sheet name="123" sheetId="15" r:id="rId7"/>
+    <sheet name="Sheet1 (5)" sheetId="14" r:id="rId8"/>
+    <sheet name="重要" sheetId="13" r:id="rId9"/>
+    <sheet name="Sheet1 (2)" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet1 (8)" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet1 (7)" sheetId="10" r:id="rId12"/>
+    <sheet name="Sheet1 (6)" sheetId="8" r:id="rId13"/>
+    <sheet name="Sheet1 (4)" sheetId="6" r:id="rId14"/>
+    <sheet name="Sheet1 (3)" sheetId="5" r:id="rId15"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId16"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Sheet1 (3)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Sheet1 (4)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sheet1 (6)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Sheet1 (7)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Sheet1 (8)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Sheet1 (2)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">重要!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Sheet1 (5)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'123'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sheet1 (9)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sheet1 (10)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sheet1 (11)'!$A$1:$M$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">重要的!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'Sheet1 (3)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'Sheet1 (4)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'Sheet1 (6)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'Sheet1 (7)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'Sheet1 (8)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Sheet1 (2)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">重要!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Sheet1 (5)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'123'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Sheet1 (9)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Sheet1 (10)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sheet1 (11)'!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">重要的!$A$1:$M$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">改版前!$A$1:$M$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
@@ -171,12 +173,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="h:mm;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="h:mm;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="25">
@@ -218,14 +220,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,24 +234,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +279,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -278,15 +310,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,9 +334,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,52 +360,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -442,7 +444,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,127 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +510,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,26 +675,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,17 +708,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,20 +736,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -763,10 +765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -775,137 +777,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -930,25 +932,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,13 +965,13 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -981,10 +983,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,16 +998,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1014,16 +1016,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="12" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1127,7 +1138,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1406,10 +1417,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1471,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="35">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
@@ -1606,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -1651,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C6" s="6">
         <v>90</v>
@@ -1737,14 +1748,14 @@
       <c r="O7" s="38"/>
     </row>
     <row r="8" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A8" s="11">
+      <c r="A8" s="40">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
-        <v>72</v>
+      <c r="C8" s="41">
+        <v>180</v>
       </c>
       <c r="D8" s="15">
         <v>12.42</v>
@@ -1753,28 +1764,28 @@
         <v>17.76</v>
       </c>
       <c r="F8" s="21">
-        <v>0.416666666666667</v>
+        <v>0.4375</v>
       </c>
       <c r="G8" s="9">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H8" s="10">
-        <v>0.458333333333333</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="I8" s="33">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J8" s="10">
-        <v>0.402777777777778</v>
+        <v>0.430555555555556</v>
       </c>
       <c r="K8" s="34">
-        <v>9.66666666666667</v>
+        <v>10.33</v>
       </c>
       <c r="L8" s="10">
-        <v>0.482638888888889</v>
+        <v>0.493055555555556</v>
       </c>
       <c r="M8" s="34">
-        <v>11.5833333333333</v>
+        <v>11.83</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>15</v>
@@ -1789,7 +1800,7 @@
         <v>360</v>
       </c>
       <c r="C9" s="6">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6">
         <v>1.24</v>
@@ -1831,7 +1842,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="C10" s="6">
         <v>108</v>
@@ -1920,7 +1931,7 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="42">
         <v>0</v>
       </c>
       <c r="C12" s="6">
@@ -1969,7 +1980,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D13" s="6">
         <v>15.36</v>
@@ -2011,7 +2022,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="C14" s="6">
         <v>72</v>
@@ -2056,7 +2067,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -2101,10 +2112,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="C16" s="6">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="D16" s="6">
         <v>20.66</v>
@@ -2145,8 +2156,8 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>252</v>
+      <c r="B17" s="42">
+        <v>260</v>
       </c>
       <c r="C17" s="6">
         <v>180</v>
@@ -2158,28 +2169,28 @@
         <v>20.2</v>
       </c>
       <c r="F17" s="21">
-        <v>0.375</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G17" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17" s="10">
-        <v>0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I17" s="33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="21">
-        <v>0.357638888888889</v>
+        <v>0.4375</v>
       </c>
       <c r="K17" s="34">
-        <v>8.58333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="L17" s="21">
-        <v>0.444444444444444</v>
+        <v>0.513888888888889</v>
       </c>
       <c r="M17" s="34">
-        <v>10.6666666666667</v>
+        <v>12.33</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>14</v>
@@ -2236,7 +2247,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -2281,10 +2292,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="C20" s="6">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D20" s="6">
         <v>25.4</v>
@@ -2371,7 +2382,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -2419,7 +2430,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D23" s="6">
         <v>5.18</v>
@@ -2461,7 +2472,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="C24" s="6">
         <v>216</v>
@@ -2550,11 +2561,11 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>72</v>
-      </c>
-      <c r="C26" s="6">
-        <v>36</v>
+      <c r="B26" s="42">
+        <v>0</v>
+      </c>
+      <c r="C26" s="41">
+        <v>68</v>
       </c>
       <c r="D26" s="6">
         <v>36</v>
@@ -2592,11 +2603,11 @@
       <c r="O26" s="38"/>
     </row>
     <row r="27" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A27" s="11">
+      <c r="A27" s="40">
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -2607,7 +2618,7 @@
       <c r="E27" s="6">
         <v>32.4</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="21">
         <v>0.229166666666667</v>
       </c>
       <c r="G27" s="9">
@@ -2640,11 +2651,11 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
-        <v>72</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
+      <c r="B28" s="42">
+        <v>108</v>
+      </c>
+      <c r="C28" s="41">
+        <v>70</v>
       </c>
       <c r="D28" s="6">
         <v>17.76</v>
@@ -2686,7 +2697,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C29" s="6">
         <v>72</v>
@@ -2727,11 +2738,11 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A30" s="22">
+      <c r="A30" s="40">
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -2742,7 +2753,7 @@
       <c r="E30" s="6">
         <v>19.76</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="37">
         <v>0.4375</v>
       </c>
       <c r="G30" s="9">
@@ -2754,17 +2765,17 @@
       <c r="I30" s="33">
         <v>11.5</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="21">
         <v>0.427083333333333</v>
       </c>
       <c r="K30" s="34">
         <v>10.25</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="21">
         <v>0.496527777777778</v>
       </c>
       <c r="M30" s="34">
-        <v>11.9166666666667</v>
+        <v>11.92</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>14</v>
@@ -2772,11 +2783,11 @@
       <c r="O30" s="38"/>
     </row>
     <row r="31" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A31" s="23">
+      <c r="A31" s="42">
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -2787,7 +2798,7 @@
       <c r="E31" s="6">
         <v>28.4</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="39">
         <v>0.416666666666667</v>
       </c>
       <c r="G31" s="9">
@@ -2799,13 +2810,13 @@
       <c r="I31" s="33">
         <v>11</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J31" s="21">
         <v>0.395833333333333</v>
       </c>
       <c r="K31" s="34">
         <v>9.5</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="21">
         <v>0.486111111111111</v>
       </c>
       <c r="M31" s="34">
@@ -2820,10 +2831,10 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
-        <v>300</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="42">
+        <v>72</v>
+      </c>
+      <c r="C32" s="41">
         <v>0</v>
       </c>
       <c r="D32" s="6">
@@ -2866,10 +2877,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C33" s="6">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
         <v>19.6</v>
@@ -2907,7 +2918,7 @@
       <c r="O33" s="38"/>
     </row>
     <row r="34" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A34" s="5">
+      <c r="A34" s="42">
         <v>33</v>
       </c>
       <c r="B34" s="5">
@@ -2935,10 +2946,10 @@
         <v>7.5</v>
       </c>
       <c r="J34" s="21">
-        <v>0.239583333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K34" s="34">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="L34" s="21">
         <v>0.329861111111111</v>
@@ -3045,8 +3056,8 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
-        <v>216</v>
+      <c r="B37" s="42">
+        <v>148</v>
       </c>
       <c r="C37" s="6">
         <v>36</v>
@@ -3086,7 +3097,6 @@
       </c>
       <c r="O37" s="38"/>
     </row>
-    <row r="42" ht="29" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3095,6 +3105,1659 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="1" width="12.5585585585586" customWidth="1"/>
+    <col min="2" max="2" width="19.6756756756757" customWidth="1"/>
+    <col min="3" max="3" width="16.027027027027" customWidth="1"/>
+    <col min="4" max="13" width="12.5585585585586" customWidth="1"/>
+    <col min="14" max="14" width="11.5855855855856" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:14">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>90</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4.52</v>
+      </c>
+      <c r="E2" s="7">
+        <v>30.72</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="9">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="I2" s="33">
+        <v>13</v>
+      </c>
+      <c r="J2" s="21">
+        <v>0.482638888888889</v>
+      </c>
+      <c r="K2" s="34">
+        <v>11.5833333333333</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0.55625</v>
+      </c>
+      <c r="M2" s="34">
+        <v>13.35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>108</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="E3" s="6">
+        <v>23</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="9">
+        <v>12</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="I3" s="33">
+        <v>13</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0.473611111111111</v>
+      </c>
+      <c r="K3" s="34">
+        <v>11.3666666666667</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0.561111111111111</v>
+      </c>
+      <c r="M3" s="34">
+        <v>13.4666666666667</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>90</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8.68</v>
+      </c>
+      <c r="E4" s="6">
+        <v>16</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="G4" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.395833333333334</v>
+      </c>
+      <c r="I4" s="33">
+        <v>9.5</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0.330555555555556</v>
+      </c>
+      <c r="K4" s="34">
+        <v>7.93333333333333</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.409722222222223</v>
+      </c>
+      <c r="M4" s="34">
+        <v>9.83333333333333</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>72</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8.74</v>
+      </c>
+      <c r="E5" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="I5" s="33">
+        <v>11.5</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.415972222222222</v>
+      </c>
+      <c r="K5" s="34">
+        <v>9.98333333333333</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.506944444444444</v>
+      </c>
+      <c r="M5" s="34">
+        <v>12.1666666666667</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>90</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8.66</v>
+      </c>
+      <c r="E6" s="6">
+        <v>32.44</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="G6" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="I6" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.2625</v>
+      </c>
+      <c r="K6" s="34">
+        <v>6.3</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0.334027777777778</v>
+      </c>
+      <c r="M6" s="34">
+        <v>8.01666666666667</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>252</v>
+      </c>
+      <c r="C7" s="6">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>14.08</v>
+      </c>
+      <c r="E7" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="I7" s="33">
+        <v>8</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.265972222222222</v>
+      </c>
+      <c r="K7" s="34">
+        <v>6.38333333333333</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.347916666666667</v>
+      </c>
+      <c r="M7" s="34">
+        <v>8.35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>72</v>
+      </c>
+      <c r="D8" s="15">
+        <v>12.42</v>
+      </c>
+      <c r="E8" s="15">
+        <v>17.76</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G8" s="9">
+        <v>11</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="33">
+        <v>12</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="K8" s="34">
+        <v>10.6666666666667</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.522222222222222</v>
+      </c>
+      <c r="M8" s="34">
+        <v>12.5333333333333</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>360</v>
+      </c>
+      <c r="C9" s="6">
+        <v>72</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>29.7</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G9" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I9" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0.214583333333333</v>
+      </c>
+      <c r="K9" s="34">
+        <v>5.15</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0.279166666666667</v>
+      </c>
+      <c r="M9" s="34">
+        <v>6.7</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>360</v>
+      </c>
+      <c r="C10" s="6">
+        <v>108</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>34.16</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="G10" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="I10" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="J10" s="32">
+        <v>0.468055555555556</v>
+      </c>
+      <c r="K10" s="34">
+        <v>11.2333333333333</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0.543055555555556</v>
+      </c>
+      <c r="M10" s="34">
+        <v>13.0333333333333</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>108</v>
+      </c>
+      <c r="D11" s="6">
+        <v>12.58</v>
+      </c>
+      <c r="E11" s="6">
+        <v>38</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G11" s="9">
+        <v>11</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="33">
+        <v>12</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.450694444444444</v>
+      </c>
+      <c r="K11" s="34">
+        <v>10.8166666666667</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0.522916666666667</v>
+      </c>
+      <c r="M11" s="34">
+        <v>12.55</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>72</v>
+      </c>
+      <c r="D12" s="6">
+        <v>18.4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>24.72</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G12" s="9">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I12" s="33">
+        <v>11</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.409027777777778</v>
+      </c>
+      <c r="K12" s="34">
+        <v>9.81666666666667</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.469444444444444</v>
+      </c>
+      <c r="M12" s="34">
+        <v>11.2666666666667</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>108</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15.36</v>
+      </c>
+      <c r="E13" s="6">
+        <v>35.8</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="G13" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="I13" s="33">
+        <v>11.5</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.429861111111111</v>
+      </c>
+      <c r="K13" s="34">
+        <v>10.3166666666667</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.491666666666667</v>
+      </c>
+      <c r="M13" s="34">
+        <v>11.8</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>144</v>
+      </c>
+      <c r="C14" s="6">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="E14" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="G14" s="9">
+        <v>9</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I14" s="33">
+        <v>10</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="K14" s="34">
+        <v>8.5</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.429166666666667</v>
+      </c>
+      <c r="M14" s="34">
+        <v>10.3</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>360</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>23.16</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="G15" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="I15" s="33">
+        <v>10.5</v>
+      </c>
+      <c r="J15" s="32">
+        <v>0.382638888888889</v>
+      </c>
+      <c r="K15" s="34">
+        <v>9.18333333333333</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0.459027777777778</v>
+      </c>
+      <c r="M15" s="34">
+        <v>11.0166666666667</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>234</v>
+      </c>
+      <c r="C16" s="6">
+        <v>108</v>
+      </c>
+      <c r="D16" s="6">
+        <v>20.66</v>
+      </c>
+      <c r="E16" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G16" s="9">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="I16" s="33">
+        <v>15</v>
+      </c>
+      <c r="J16" s="32">
+        <v>0.563888888888889</v>
+      </c>
+      <c r="K16" s="34">
+        <v>13.5333333333333</v>
+      </c>
+      <c r="L16" s="32">
+        <v>0.643055555555555</v>
+      </c>
+      <c r="M16" s="34">
+        <v>15.4333333333333</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>252</v>
+      </c>
+      <c r="C17" s="6">
+        <v>180</v>
+      </c>
+      <c r="D17" s="6">
+        <v>21.84</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20.2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="G17" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I17" s="33">
+        <v>9.5</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0.340277777777778</v>
+      </c>
+      <c r="K17" s="34">
+        <v>8.16666666666667</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0.421527777777778</v>
+      </c>
+      <c r="M17" s="34">
+        <v>10.1166666666667</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>198</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>29.16</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7.98</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="G18" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.645833333333334</v>
+      </c>
+      <c r="I18" s="33">
+        <v>15.5</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0.590972222222223</v>
+      </c>
+      <c r="K18" s="34">
+        <v>14.1833333333333</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0.669444444444445</v>
+      </c>
+      <c r="M18" s="34">
+        <v>16.0666666666667</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>234</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12.54</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="G19" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.395833333333334</v>
+      </c>
+      <c r="I19" s="33">
+        <v>9.5</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0.329166666666667</v>
+      </c>
+      <c r="K19" s="34">
+        <v>7.9</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0.407638888888889</v>
+      </c>
+      <c r="M19" s="34">
+        <v>9.78333333333333</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>108</v>
+      </c>
+      <c r="D20" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="G20" s="9">
+        <v>14</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.625</v>
+      </c>
+      <c r="I20" s="33">
+        <v>15</v>
+      </c>
+      <c r="J20" s="32">
+        <v>0.558333333333333</v>
+      </c>
+      <c r="K20" s="34">
+        <v>13.4</v>
+      </c>
+      <c r="L20" s="32">
+        <v>0.636805555555555</v>
+      </c>
+      <c r="M20" s="34">
+        <v>15.2833333333333</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>72</v>
+      </c>
+      <c r="C21" s="6">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6">
+        <v>12.28</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="G21" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="I21" s="33">
+        <v>10.5</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.385416666666666</v>
+      </c>
+      <c r="K21" s="34">
+        <v>9.25</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0.456944444444444</v>
+      </c>
+      <c r="M21" s="34">
+        <v>10.9666666666667</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>288</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>17.58</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15.34</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.520833333333333</v>
+      </c>
+      <c r="G22" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="I22" s="33">
+        <v>13.5</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.499305555555555</v>
+      </c>
+      <c r="K22" s="34">
+        <v>11.9833333333333</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0.588888888888889</v>
+      </c>
+      <c r="M22" s="34">
+        <v>14.1333333333333</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>108</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5.18</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5.34</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="G23" s="9">
+        <v>9.5</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.4375</v>
+      </c>
+      <c r="I23" s="33">
+        <v>10.5</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.376388888888889</v>
+      </c>
+      <c r="K23" s="34">
+        <v>9.03333333333333</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0.453472222222222</v>
+      </c>
+      <c r="M23" s="34">
+        <v>10.8833333333333</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A24" s="27">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>144</v>
+      </c>
+      <c r="C24" s="6">
+        <v>216</v>
+      </c>
+      <c r="D24" s="6">
+        <v>34.04</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5.12</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="G24" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I24" s="33">
+        <v>9.5</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0.342361111111111</v>
+      </c>
+      <c r="K24" s="34">
+        <v>8.21666666666667</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0.404861111111111</v>
+      </c>
+      <c r="M24" s="34">
+        <v>9.71666666666667</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29">
+        <v>216</v>
+      </c>
+      <c r="C25" s="15">
+        <v>90</v>
+      </c>
+      <c r="D25" s="6">
+        <v>14.28</v>
+      </c>
+      <c r="E25" s="6">
+        <v>12.66</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="G25" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.395833333333334</v>
+      </c>
+      <c r="I25" s="33">
+        <v>9.5</v>
+      </c>
+      <c r="J25" s="21">
+        <v>0.334722222222223</v>
+      </c>
+      <c r="K25" s="34">
+        <v>8.03333333333333</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0.404861111111112</v>
+      </c>
+      <c r="M25" s="34">
+        <v>9.71666666666667</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>72</v>
+      </c>
+      <c r="C26" s="6">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6">
+        <v>36</v>
+      </c>
+      <c r="E26" s="6">
+        <v>16.66</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="G26" s="9">
+        <v>15</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I26" s="33">
+        <v>16</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0.609722222222222</v>
+      </c>
+      <c r="K26" s="34">
+        <v>14.6333333333333</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0.689583333333333</v>
+      </c>
+      <c r="M26" s="34">
+        <v>16.55</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>126</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>20.4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="F27" s="37">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G27" s="9">
+        <v>10</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I27" s="33">
+        <v>11</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0.390972222222222</v>
+      </c>
+      <c r="K27" s="34">
+        <v>9.38333333333333</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0.48125</v>
+      </c>
+      <c r="M27" s="34">
+        <v>11.55</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>72</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>17.76</v>
+      </c>
+      <c r="E28" s="6">
+        <v>20.7</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="G28" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.520833333333334</v>
+      </c>
+      <c r="I28" s="33">
+        <v>12.5</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0.463194444444445</v>
+      </c>
+      <c r="K28" s="34">
+        <v>11.1166666666667</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0.547222222222223</v>
+      </c>
+      <c r="M28" s="34">
+        <v>13.1333333333333</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>72</v>
+      </c>
+      <c r="D29" s="6">
+        <v>38</v>
+      </c>
+      <c r="E29" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="G29" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="I29" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0.263194444444444</v>
+      </c>
+      <c r="K29" s="34">
+        <v>6.31666666666667</v>
+      </c>
+      <c r="L29" s="32">
+        <v>0.334027777777778</v>
+      </c>
+      <c r="M29" s="34">
+        <v>8.01666666666667</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>180</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>29.6</v>
+      </c>
+      <c r="E30" s="6">
+        <v>19.76</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="G30" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="I30" s="33">
+        <v>8.5</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0.289583333333333</v>
+      </c>
+      <c r="K30" s="34">
+        <v>6.95</v>
+      </c>
+      <c r="L30" s="32">
+        <v>0.378472222222222</v>
+      </c>
+      <c r="M30" s="34">
+        <v>9.08333333333333</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>360</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="E31" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G31" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I31" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0.211111111111111</v>
+      </c>
+      <c r="K31" s="34">
+        <v>5.06666666666667</v>
+      </c>
+      <c r="L31" s="32">
+        <v>0.283333333333333</v>
+      </c>
+      <c r="M31" s="34">
+        <v>6.8</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>180</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>22.4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>36.6</v>
+      </c>
+      <c r="F32" s="37">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G32" s="9">
+        <v>10</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I32" s="33">
+        <v>11</v>
+      </c>
+      <c r="J32" s="21">
+        <v>0.403472222222222</v>
+      </c>
+      <c r="K32" s="34">
+        <v>9.68333333333333</v>
+      </c>
+      <c r="L32" s="21">
+        <v>0.480555555555556</v>
+      </c>
+      <c r="M32" s="34">
+        <v>11.5333333333333</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>108</v>
+      </c>
+      <c r="D33" s="6">
+        <v>19.6</v>
+      </c>
+      <c r="E33" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G33" s="9">
+        <v>8</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="I33" s="33">
+        <v>9</v>
+      </c>
+      <c r="J33" s="21">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="K33" s="34">
+        <v>7.66666666666667</v>
+      </c>
+      <c r="L33" s="21">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="M33" s="34">
+        <v>9.5</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>252</v>
+      </c>
+      <c r="C34" s="6">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="E34" s="6">
+        <v>24.24</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0.645833333333333</v>
+      </c>
+      <c r="G34" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.6875</v>
+      </c>
+      <c r="I34" s="33">
+        <v>16.5</v>
+      </c>
+      <c r="J34" s="21">
+        <v>0.624305555555555</v>
+      </c>
+      <c r="K34" s="34">
+        <v>14.9833333333333</v>
+      </c>
+      <c r="L34" s="21">
+        <v>0.695138888888889</v>
+      </c>
+      <c r="M34" s="34">
+        <v>16.6833333333333</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>162</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>31.6</v>
+      </c>
+      <c r="E35" s="6">
+        <v>12.72</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.604166666666667</v>
+      </c>
+      <c r="G35" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.645833333333334</v>
+      </c>
+      <c r="I35" s="33">
+        <v>15.5</v>
+      </c>
+      <c r="J35" s="32">
+        <v>0.588194444444445</v>
+      </c>
+      <c r="K35" s="34">
+        <v>14.1166666666667</v>
+      </c>
+      <c r="L35" s="32">
+        <v>0.663194444444445</v>
+      </c>
+      <c r="M35" s="34">
+        <v>15.9166666666667</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>54</v>
+      </c>
+      <c r="D36" s="6">
+        <v>37.12</v>
+      </c>
+      <c r="E36" s="6">
+        <v>11.66</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.625</v>
+      </c>
+      <c r="G36" s="9">
+        <v>15</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="I36" s="33">
+        <v>16</v>
+      </c>
+      <c r="J36" s="21">
+        <v>0.602083333333333</v>
+      </c>
+      <c r="K36" s="34">
+        <v>14.45</v>
+      </c>
+      <c r="L36" s="21">
+        <v>0.691666666666667</v>
+      </c>
+      <c r="M36" s="34">
+        <v>16.6</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="25.05" customHeight="1" spans="1:14">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>216</v>
+      </c>
+      <c r="C37" s="6">
+        <v>36</v>
+      </c>
+      <c r="D37" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>16.6</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="9">
+        <v>12</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="I37" s="33">
+        <v>13</v>
+      </c>
+      <c r="J37" s="21">
+        <v>0.486805555555556</v>
+      </c>
+      <c r="K37" s="34">
+        <v>11.6833333333333</v>
+      </c>
+      <c r="L37" s="21">
+        <v>0.569444444444444</v>
+      </c>
+      <c r="M37" s="34">
+        <v>13.6666666666667</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M37"/>
@@ -4635,7 +6298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M37"/>
@@ -6173,7 +7836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M37"/>
@@ -7711,7 +9374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M37"/>
@@ -9249,7 +10912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:M37"/>
@@ -10781,23 +12444,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
-  <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -10821,13 +12467,30 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:M37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -10889,7 +12552,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="35">
-        <v>90</v>
+        <v>200</v>
       </c>
       <c r="C2" s="7">
         <v>0</v>
@@ -10901,28 +12564,28 @@
         <v>30.72</v>
       </c>
       <c r="F2" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="9">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10">
         <v>0.291666666666667</v>
       </c>
-      <c r="G2" s="9">
+      <c r="I2" s="33">
         <v>7</v>
       </c>
-      <c r="H2" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I2" s="33">
-        <v>8</v>
-      </c>
       <c r="J2" s="21">
-        <v>0.267361111111111</v>
+        <v>0.232638888888889</v>
       </c>
       <c r="K2" s="34">
-        <v>6.41666666666667</v>
+        <v>5.58333333333333</v>
       </c>
       <c r="L2" s="21">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="M2" s="34">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>14</v>
@@ -10946,28 +12609,28 @@
         <v>23</v>
       </c>
       <c r="F3" s="21">
-        <v>0.291666666666667</v>
+        <v>0.270833333333333</v>
       </c>
       <c r="G3" s="9">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H3" s="10">
-        <v>0.333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="I3" s="33">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J3" s="21">
-        <v>0.277777777777778</v>
+        <v>0.263888888888889</v>
       </c>
       <c r="K3" s="34">
-        <v>6.66666666666667</v>
+        <v>6.33333333333333</v>
       </c>
       <c r="L3" s="21">
-        <v>0.357638888888889</v>
+        <v>0.329861111111111</v>
       </c>
       <c r="M3" s="34">
-        <v>8.58333333333333</v>
+        <v>7.91666666666667</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>15</v>
@@ -11024,7 +12687,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C5" s="6">
         <v>0</v>
@@ -11042,7 +12705,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="10">
-        <v>0.458333333333334</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="I5" s="33">
         <v>11</v>
@@ -11069,7 +12732,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C6" s="6">
         <v>90</v>
@@ -11132,7 +12795,7 @@
         <v>8.5</v>
       </c>
       <c r="H7" s="10">
-        <v>0.395833333333334</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="I7" s="33">
         <v>9.5</v>
@@ -11155,14 +12818,14 @@
       <c r="O7" s="38"/>
     </row>
     <row r="8" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A8" s="11">
+      <c r="A8" s="40">
         <v>7</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
       </c>
-      <c r="C8" s="6">
-        <v>72</v>
+      <c r="C8" s="41">
+        <v>180</v>
       </c>
       <c r="D8" s="15">
         <v>12.42</v>
@@ -11171,28 +12834,28 @@
         <v>17.76</v>
       </c>
       <c r="F8" s="21">
-        <v>0.416666666666667</v>
+        <v>0.4375</v>
       </c>
       <c r="G8" s="9">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="H8" s="10">
-        <v>0.458333333333334</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="I8" s="33">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J8" s="10">
-        <v>0.402777777777778</v>
+        <v>0.430555555555556</v>
       </c>
       <c r="K8" s="34">
-        <v>9.66666666666667</v>
+        <v>10.33</v>
       </c>
       <c r="L8" s="10">
-        <v>0.482638888888889</v>
+        <v>0.493055555555556</v>
       </c>
       <c r="M8" s="34">
-        <v>11.5833333333333</v>
+        <v>11.83</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>15</v>
@@ -11207,7 +12870,7 @@
         <v>360</v>
       </c>
       <c r="C9" s="6">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="D9" s="6">
         <v>1.24</v>
@@ -11249,7 +12912,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="C10" s="6">
         <v>108</v>
@@ -11261,28 +12924,28 @@
         <v>34.16</v>
       </c>
       <c r="F10" s="21">
-        <v>0.270833333333333</v>
+        <v>0.25</v>
       </c>
       <c r="G10" s="9">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="H10" s="10">
-        <v>0.3125</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="I10" s="33">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J10" s="32">
-        <v>0.25</v>
+        <v>0.232638888888889</v>
       </c>
       <c r="K10" s="34">
-        <v>6</v>
+        <v>5.58333333333333</v>
       </c>
       <c r="L10" s="32">
-        <v>0.329861111111111</v>
+        <v>0.315972222222222</v>
       </c>
       <c r="M10" s="34">
-        <v>7.91666666666667</v>
+        <v>7.58333333333333</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>16</v>
@@ -11338,7 +13001,7 @@
       <c r="A12" s="11">
         <v>11</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="42">
         <v>0</v>
       </c>
       <c r="C12" s="6">
@@ -11387,7 +13050,7 @@
         <v>108</v>
       </c>
       <c r="C13" s="6">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D13" s="6">
         <v>15.36</v>
@@ -11396,28 +13059,28 @@
         <v>35.8</v>
       </c>
       <c r="F13" s="21">
-        <v>0.25</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="G13" s="9">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H13" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I13" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K13" s="34">
+        <v>5</v>
+      </c>
+      <c r="L13" s="19">
         <v>0.291666666666667</v>
       </c>
-      <c r="I13" s="33">
+      <c r="M13" s="34">
         <v>7</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0.229166666666667</v>
-      </c>
-      <c r="K13" s="34">
-        <v>5.5</v>
-      </c>
-      <c r="L13" s="19">
-        <v>0.305555555555556</v>
-      </c>
-      <c r="M13" s="34">
-        <v>7.33333333333333</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>15</v>
@@ -11429,7 +13092,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="C14" s="6">
         <v>72</v>
@@ -11474,7 +13137,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5">
-        <v>360</v>
+        <v>290</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -11498,16 +13161,16 @@
         <v>12</v>
       </c>
       <c r="J15" s="32">
-        <v>0.447916666666667</v>
+        <v>0.451388888888889</v>
       </c>
       <c r="K15" s="34">
-        <v>10.75</v>
+        <v>10.8333333333333</v>
       </c>
       <c r="L15" s="32">
-        <v>0.520833333333333</v>
+        <v>0.524305555555556</v>
       </c>
       <c r="M15" s="34">
-        <v>12.5</v>
+        <v>12.5833333333333</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>14</v>
@@ -11519,10 +13182,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5">
-        <v>234</v>
+        <v>100</v>
       </c>
       <c r="C16" s="6">
-        <v>108</v>
+        <v>208</v>
       </c>
       <c r="D16" s="6">
         <v>20.66</v>
@@ -11537,7 +13200,7 @@
         <v>5.5</v>
       </c>
       <c r="H16" s="10">
-        <v>0.270833333333334</v>
+        <v>0.270833333333333</v>
       </c>
       <c r="I16" s="33">
         <v>6.5</v>
@@ -11563,8 +13226,8 @@
       <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="5">
-        <v>252</v>
+      <c r="B17" s="42">
+        <v>260</v>
       </c>
       <c r="C17" s="6">
         <v>180</v>
@@ -11576,28 +13239,28 @@
         <v>20.2</v>
       </c>
       <c r="F17" s="21">
-        <v>0.375</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G17" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H17" s="10">
-        <v>0.416666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I17" s="33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J17" s="21">
-        <v>0.357638888888889</v>
+        <v>0.4375</v>
       </c>
       <c r="K17" s="34">
-        <v>8.58333333333333</v>
+        <v>10.5</v>
       </c>
       <c r="L17" s="21">
-        <v>0.444444444444444</v>
+        <v>0.513888888888889</v>
       </c>
       <c r="M17" s="34">
-        <v>10.6666666666667</v>
+        <v>12.33</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>14</v>
@@ -11621,28 +13284,28 @@
         <v>7.98</v>
       </c>
       <c r="F18" s="21">
-        <v>0.25</v>
+        <v>0.229166666666667</v>
       </c>
       <c r="G18" s="9">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="H18" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I18" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K18" s="34">
+        <v>5</v>
+      </c>
+      <c r="L18" s="32">
         <v>0.291666666666667</v>
       </c>
-      <c r="I18" s="33">
+      <c r="M18" s="34">
         <v>7</v>
-      </c>
-      <c r="J18" s="32">
-        <v>0.229166666666667</v>
-      </c>
-      <c r="K18" s="34">
-        <v>5.5</v>
-      </c>
-      <c r="L18" s="32">
-        <v>0.3125</v>
-      </c>
-      <c r="M18" s="34">
-        <v>7.5</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>14</v>
@@ -11654,7 +13317,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -11699,10 +13362,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>0</v>
+        <v>243</v>
       </c>
       <c r="C20" s="6">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D20" s="6">
         <v>25.4</v>
@@ -11717,7 +13380,7 @@
         <v>5.5</v>
       </c>
       <c r="H20" s="10">
-        <v>0.270833333333334</v>
+        <v>0.270833333333333</v>
       </c>
       <c r="I20" s="33">
         <v>6.5</v>
@@ -11762,7 +13425,7 @@
         <v>8.5</v>
       </c>
       <c r="H21" s="10">
-        <v>0.395833333333334</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="I21" s="33">
         <v>9.5</v>
@@ -11789,7 +13452,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="5">
-        <v>288</v>
+        <v>338</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -11837,7 +13500,7 @@
         <v>108</v>
       </c>
       <c r="C23" s="6">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="D23" s="6">
         <v>5.18</v>
@@ -11879,7 +13542,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="5">
-        <v>144</v>
+        <v>244</v>
       </c>
       <c r="C24" s="6">
         <v>216</v>
@@ -11891,16 +13554,16 @@
         <v>5.12</v>
       </c>
       <c r="F24" s="21">
-        <v>0.458333333333333</v>
+        <v>0.4375</v>
       </c>
       <c r="G24" s="9">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="H24" s="10">
-        <v>0.5</v>
+        <v>0.479166666666667</v>
       </c>
       <c r="I24" s="33">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="J24" s="32">
         <v>0.430555555555556</v>
@@ -11909,10 +13572,10 @@
         <v>10.3333333333333</v>
       </c>
       <c r="L24" s="32">
-        <v>0.520833333333333</v>
+        <v>0.496527777777778</v>
       </c>
       <c r="M24" s="34">
-        <v>12.5</v>
+        <v>11.9166666666667</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>16</v>
@@ -11968,11 +13631,11 @@
       <c r="A26" s="11">
         <v>25</v>
       </c>
-      <c r="B26" s="5">
-        <v>72</v>
-      </c>
-      <c r="C26" s="6">
-        <v>36</v>
+      <c r="B26" s="42">
+        <v>0</v>
+      </c>
+      <c r="C26" s="41">
+        <v>68</v>
       </c>
       <c r="D26" s="6">
         <v>36</v>
@@ -12010,11 +13673,11 @@
       <c r="O26" s="38"/>
     </row>
     <row r="27" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A27" s="11">
+      <c r="A27" s="40">
         <v>26</v>
       </c>
       <c r="B27" s="5">
-        <v>126</v>
+        <v>220</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -12025,14 +13688,14 @@
       <c r="E27" s="6">
         <v>32.4</v>
       </c>
-      <c r="F27" s="37">
+      <c r="F27" s="21">
         <v>0.229166666666667</v>
       </c>
       <c r="G27" s="9">
         <v>5.5</v>
       </c>
       <c r="H27" s="10">
-        <v>0.270833333333334</v>
+        <v>0.270833333333333</v>
       </c>
       <c r="I27" s="33">
         <v>6.5</v>
@@ -12058,11 +13721,11 @@
       <c r="A28" s="11">
         <v>27</v>
       </c>
-      <c r="B28" s="5">
-        <v>72</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
+      <c r="B28" s="42">
+        <v>108</v>
+      </c>
+      <c r="C28" s="41">
+        <v>70</v>
       </c>
       <c r="D28" s="6">
         <v>17.76</v>
@@ -12104,7 +13767,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="5">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C29" s="6">
         <v>72</v>
@@ -12122,7 +13785,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="10">
-        <v>0.458333333333334</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="I29" s="33">
         <v>11</v>
@@ -12145,11 +13808,11 @@
       <c r="O29" s="38"/>
     </row>
     <row r="30" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A30" s="22">
+      <c r="A30" s="40">
         <v>29</v>
       </c>
       <c r="B30" s="5">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -12160,7 +13823,7 @@
       <c r="E30" s="6">
         <v>19.76</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="37">
         <v>0.4375</v>
       </c>
       <c r="G30" s="9">
@@ -12172,17 +13835,17 @@
       <c r="I30" s="33">
         <v>11.5</v>
       </c>
-      <c r="J30" s="32">
+      <c r="J30" s="21">
         <v>0.427083333333333</v>
       </c>
       <c r="K30" s="34">
         <v>10.25</v>
       </c>
-      <c r="L30" s="32">
+      <c r="L30" s="21">
         <v>0.496527777777778</v>
       </c>
       <c r="M30" s="34">
-        <v>11.9166666666667</v>
+        <v>11.92</v>
       </c>
       <c r="N30" s="2" t="s">
         <v>14</v>
@@ -12190,11 +13853,11 @@
       <c r="O30" s="38"/>
     </row>
     <row r="31" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A31" s="23">
+      <c r="A31" s="42">
         <v>30</v>
       </c>
       <c r="B31" s="5">
-        <v>360</v>
+        <v>300</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -12205,25 +13868,25 @@
       <c r="E31" s="6">
         <v>28.4</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="39">
         <v>0.416666666666667</v>
       </c>
       <c r="G31" s="9">
         <v>10</v>
       </c>
       <c r="H31" s="10">
-        <v>0.458333333333334</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="I31" s="33">
         <v>11</v>
       </c>
-      <c r="J31" s="32">
+      <c r="J31" s="21">
         <v>0.395833333333333</v>
       </c>
       <c r="K31" s="34">
         <v>9.5</v>
       </c>
-      <c r="L31" s="32">
+      <c r="L31" s="21">
         <v>0.486111111111111</v>
       </c>
       <c r="M31" s="34">
@@ -12238,10 +13901,10 @@
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="5">
-        <v>300</v>
-      </c>
-      <c r="C32" s="6">
+      <c r="B32" s="42">
+        <v>72</v>
+      </c>
+      <c r="C32" s="41">
         <v>0</v>
       </c>
       <c r="D32" s="6">
@@ -12257,7 +13920,7 @@
         <v>5.5</v>
       </c>
       <c r="H32" s="10">
-        <v>0.270833333333334</v>
+        <v>0.270833333333333</v>
       </c>
       <c r="I32" s="33">
         <v>6.5</v>
@@ -12284,10 +13947,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C33" s="6">
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="D33" s="6">
         <v>19.6</v>
@@ -12302,7 +13965,7 @@
         <v>8.5</v>
       </c>
       <c r="H33" s="10">
-        <v>0.395833333333334</v>
+        <v>0.395833333333333</v>
       </c>
       <c r="I33" s="33">
         <v>9.5</v>
@@ -12325,7 +13988,7 @@
       <c r="O33" s="38"/>
     </row>
     <row r="34" ht="25.05" customHeight="1" spans="1:15">
-      <c r="A34" s="5">
+      <c r="A34" s="42">
         <v>33</v>
       </c>
       <c r="B34" s="5">
@@ -12341,28 +14004,28 @@
         <v>24.24</v>
       </c>
       <c r="F34" s="39">
-        <v>0.291666666666667</v>
+        <v>0.270833333333333</v>
       </c>
       <c r="G34" s="9">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="H34" s="10">
-        <v>0.333333333333333</v>
+        <v>0.3125</v>
       </c>
       <c r="I34" s="33">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J34" s="21">
-        <v>0.270833333333333</v>
+        <v>0.25</v>
       </c>
       <c r="K34" s="34">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="L34" s="21">
-        <v>0.361111111111111</v>
+        <v>0.329861111111111</v>
       </c>
       <c r="M34" s="34">
-        <v>8.66666666666667</v>
+        <v>7.91666666666667</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>14</v>
@@ -12463,8 +14126,8 @@
       <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="5">
-        <v>216</v>
+      <c r="B37" s="42">
+        <v>148</v>
       </c>
       <c r="C37" s="6">
         <v>36</v>
@@ -12504,7 +14167,6 @@
       </c>
       <c r="O37" s="38"/>
     </row>
-    <row r="42" ht="29" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -12517,8 +14179,8 @@
   <sheetPr/>
   <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -12592,28 +14254,28 @@
         <v>30.72</v>
       </c>
       <c r="F2" s="10">
-        <v>0.25</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="G2" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="10">
-        <v>0.291666666666667</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I2" s="33">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J2" s="21">
-        <v>0.232638888888889</v>
+        <v>0.267361111111111</v>
       </c>
       <c r="K2" s="34">
-        <v>5.58333333333333</v>
+        <v>6.41666666666667</v>
       </c>
       <c r="L2" s="21">
-        <v>0.3125</v>
+        <v>0.34375</v>
       </c>
       <c r="M2" s="34">
-        <v>7.5</v>
+        <v>8.25</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>14</v>
@@ -12637,28 +14299,28 @@
         <v>23</v>
       </c>
       <c r="F3" s="21">
-        <v>0.270833333333333</v>
+        <v>0.291666666666667</v>
       </c>
       <c r="G3" s="9">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="10">
-        <v>0.3125</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="I3" s="33">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J3" s="21">
-        <v>0.263888888888889</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="K3" s="34">
-        <v>6.33333333333333</v>
+        <v>6.66666666666667</v>
       </c>
       <c r="L3" s="21">
-        <v>0.329861111111111</v>
+        <v>0.357638888888889</v>
       </c>
       <c r="M3" s="34">
-        <v>7.91666666666667</v>
+        <v>8.58333333333333</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>15</v>
@@ -12733,7 +14395,7 @@
         <v>10</v>
       </c>
       <c r="H5" s="10">
-        <v>0.458333333333333</v>
+        <v>0.458333333333334</v>
       </c>
       <c r="I5" s="33">
         <v>11</v>
@@ -12823,7 +14485,7 @@
         <v>8.5</v>
       </c>
       <c r="H7" s="10">
-        <v>0.395833333333333</v>
+        <v>0.395833333333334</v>
       </c>
       <c r="I7" s="33">
         <v>9.5</v>
@@ -12868,7 +14530,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="10">
-        <v>0.458333333333333</v>
+        <v>0.458333333333334</v>
       </c>
       <c r="I8" s="33">
         <v>11</v>
@@ -12952,28 +14614,28 @@
         <v>34.16</v>
       </c>
       <c r="F10" s="21">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="I10" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="J10" s="32">
         <v>0.25</v>
       </c>
-      <c r="G10" s="9">
+      <c r="K10" s="34">
         <v>6</v>
       </c>
-      <c r="H10" s="10">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="I10" s="33">
-        <v>7</v>
-      </c>
-      <c r="J10" s="32">
-        <v>0.232638888888889</v>
-      </c>
-      <c r="K10" s="34">
-        <v>5.58333333333333</v>
-      </c>
       <c r="L10" s="32">
-        <v>0.315972222222222</v>
+        <v>0.329861111111111</v>
       </c>
       <c r="M10" s="34">
-        <v>7.58333333333333</v>
+        <v>7.91666666666667</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>16</v>
@@ -13087,28 +14749,28 @@
         <v>35.8</v>
       </c>
       <c r="F13" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="G13" s="9">
+        <v>6</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="I13" s="33">
+        <v>7</v>
+      </c>
+      <c r="J13" s="19">
         <v>0.229166666666667</v>
       </c>
-      <c r="G13" s="9">
+      <c r="K13" s="34">
         <v>5.5</v>
       </c>
-      <c r="H13" s="10">
-        <v>0.270833333333333</v>
-      </c>
-      <c r="I13" s="33">
-        <v>6.5</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="K13" s="34">
-        <v>5</v>
-      </c>
       <c r="L13" s="19">
-        <v>0.291666666666667</v>
+        <v>0.305555555555556</v>
       </c>
       <c r="M13" s="34">
-        <v>7</v>
+        <v>7.33333333333333</v>
       </c>
       <c r="N13" s="2" t="s">
         <v>15</v>
@@ -13189,16 +14851,16 @@
         <v>12</v>
       </c>
       <c r="J15" s="32">
-        <v>0.451388888888889</v>
+        <v>0.447916666666667</v>
       </c>
       <c r="K15" s="34">
-        <v>10.8333333333333</v>
+        <v>10.75</v>
       </c>
       <c r="L15" s="32">
-        <v>0.524305555555556</v>
+        <v>0.520833333333333</v>
       </c>
       <c r="M15" s="34">
-        <v>12.5833333333333</v>
+        <v>12.5</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>14</v>
@@ -13228,7 +14890,7 @@
         <v>5.5</v>
       </c>
       <c r="H16" s="10">
-        <v>0.270833333333333</v>
+        <v>0.270833333333334</v>
       </c>
       <c r="I16" s="33">
         <v>6.5</v>
@@ -13312,28 +14974,28 @@
         <v>7.98</v>
       </c>
       <c r="F18" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="G18" s="9">
+        <v>6</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="I18" s="33">
+        <v>7</v>
+      </c>
+      <c r="J18" s="32">
         <v>0.229166666666667</v>
       </c>
-      <c r="G18" s="9">
+      <c r="K18" s="34">
         <v>5.5</v>
       </c>
-      <c r="H18" s="10">
-        <v>0.270833333333333</v>
-      </c>
-      <c r="I18" s="33">
-        <v>6.5</v>
-      </c>
-      <c r="J18" s="32">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="K18" s="34">
-        <v>5</v>
-      </c>
       <c r="L18" s="32">
-        <v>0.291666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="M18" s="34">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="N18" s="2" t="s">
         <v>14</v>
@@ -13408,7 +15070,7 @@
         <v>5.5</v>
       </c>
       <c r="H20" s="10">
-        <v>0.270833333333333</v>
+        <v>0.270833333333334</v>
       </c>
       <c r="I20" s="33">
         <v>6.5</v>
@@ -13453,7 +15115,7 @@
         <v>8.5</v>
       </c>
       <c r="H21" s="10">
-        <v>0.395833333333333</v>
+        <v>0.395833333333334</v>
       </c>
       <c r="I21" s="33">
         <v>9.5</v>
@@ -13582,16 +15244,16 @@
         <v>5.12</v>
       </c>
       <c r="F24" s="21">
-        <v>0.4375</v>
+        <v>0.458333333333333</v>
       </c>
       <c r="G24" s="9">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="H24" s="10">
-        <v>0.479166666666667</v>
+        <v>0.5</v>
       </c>
       <c r="I24" s="33">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="J24" s="32">
         <v>0.430555555555556</v>
@@ -13600,10 +15262,10 @@
         <v>10.3333333333333</v>
       </c>
       <c r="L24" s="32">
-        <v>0.496527777777778</v>
+        <v>0.520833333333333</v>
       </c>
       <c r="M24" s="34">
-        <v>11.9166666666667</v>
+        <v>12.5</v>
       </c>
       <c r="N24" s="2" t="s">
         <v>16</v>
@@ -13723,7 +15385,7 @@
         <v>5.5</v>
       </c>
       <c r="H27" s="10">
-        <v>0.270833333333333</v>
+        <v>0.270833333333334</v>
       </c>
       <c r="I27" s="33">
         <v>6.5</v>
@@ -13813,7 +15475,7 @@
         <v>10</v>
       </c>
       <c r="H29" s="10">
-        <v>0.458333333333333</v>
+        <v>0.458333333333334</v>
       </c>
       <c r="I29" s="33">
         <v>11</v>
@@ -13930,7 +15592,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -13948,7 +15610,7 @@
         <v>5.5</v>
       </c>
       <c r="H32" s="10">
-        <v>0.270833333333333</v>
+        <v>0.270833333333334</v>
       </c>
       <c r="I32" s="33">
         <v>6.5</v>
@@ -13993,7 +15655,7 @@
         <v>8.5</v>
       </c>
       <c r="H33" s="10">
-        <v>0.395833333333333</v>
+        <v>0.395833333333334</v>
       </c>
       <c r="I33" s="33">
         <v>9.5</v>
@@ -14204,6 +15866,1697 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O42"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="1" width="9.48648648648649" customWidth="1"/>
+    <col min="2" max="2" width="14.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="16.027027027027" customWidth="1"/>
+    <col min="4" max="13" width="12.5585585585586" customWidth="1"/>
+    <col min="14" max="15" width="11.5855855855856" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="36" customHeight="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="38"/>
+    </row>
+    <row r="2" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35">
+        <v>90</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4.52</v>
+      </c>
+      <c r="E2" s="7">
+        <v>30.72</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G2" s="9">
+        <v>6</v>
+      </c>
+      <c r="H2" s="10">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="I2" s="33">
+        <v>7</v>
+      </c>
+      <c r="J2" s="21">
+        <v>0.232638888888889</v>
+      </c>
+      <c r="K2" s="34">
+        <v>5.58333333333333</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="M2" s="34">
+        <v>7.5</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>108</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>3.72</v>
+      </c>
+      <c r="E3" s="6">
+        <v>23</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="G3" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="I3" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="J3" s="21">
+        <v>0.263888888888889</v>
+      </c>
+      <c r="K3" s="34">
+        <v>6.33333333333333</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0.329861111111111</v>
+      </c>
+      <c r="M3" s="34">
+        <v>7.91666666666667</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="38"/>
+    </row>
+    <row r="4" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>90</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>8.68</v>
+      </c>
+      <c r="E4" s="6">
+        <v>16</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="G4" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="I4" s="33">
+        <v>8.5</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="K4" s="34">
+        <v>7</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="M4" s="34">
+        <v>8.91666666666667</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="38"/>
+    </row>
+    <row r="5" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>72</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>8.74</v>
+      </c>
+      <c r="E5" s="6">
+        <v>22.52</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I5" s="33">
+        <v>11</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.399305555555556</v>
+      </c>
+      <c r="K5" s="34">
+        <v>9.58333333333333</v>
+      </c>
+      <c r="L5" s="10">
+        <v>0.472222222222222</v>
+      </c>
+      <c r="M5" s="34">
+        <v>11.3333333333333</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O5" s="38"/>
+    </row>
+    <row r="6" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>90</v>
+      </c>
+      <c r="D6" s="6">
+        <v>8.66</v>
+      </c>
+      <c r="E6" s="6">
+        <v>32.44</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G6" s="9">
+        <v>8</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="33">
+        <v>9</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="K6" s="34">
+        <v>7.5</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0.399305555555556</v>
+      </c>
+      <c r="M6" s="34">
+        <v>9.58333333333333</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="38"/>
+    </row>
+    <row r="7" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>252</v>
+      </c>
+      <c r="C7" s="6">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>14.08</v>
+      </c>
+      <c r="E7" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="G7" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I7" s="33">
+        <v>9.5</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K7" s="34">
+        <v>8</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0.413194444444444</v>
+      </c>
+      <c r="M7" s="34">
+        <v>9.91666666666667</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>72</v>
+      </c>
+      <c r="D8" s="15">
+        <v>12.42</v>
+      </c>
+      <c r="E8" s="15">
+        <v>17.76</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G8" s="9">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I8" s="33">
+        <v>11</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.402777777777778</v>
+      </c>
+      <c r="K8" s="34">
+        <v>9.66666666666667</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.482638888888889</v>
+      </c>
+      <c r="M8" s="34">
+        <v>11.5833333333333</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>360</v>
+      </c>
+      <c r="C9" s="6">
+        <v>72</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1.24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>29.7</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G9" s="9">
+        <v>8</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="I9" s="33">
+        <v>9</v>
+      </c>
+      <c r="J9" s="21">
+        <v>0.315972222222222</v>
+      </c>
+      <c r="K9" s="34">
+        <v>7.58333333333333</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0.392361111111111</v>
+      </c>
+      <c r="M9" s="34">
+        <v>9.41666666666667</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A10" s="16">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>360</v>
+      </c>
+      <c r="C10" s="6">
+        <v>108</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4.6</v>
+      </c>
+      <c r="E10" s="6">
+        <v>34.16</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="9">
+        <v>6</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="I10" s="33">
+        <v>7</v>
+      </c>
+      <c r="J10" s="32">
+        <v>0.232638888888889</v>
+      </c>
+      <c r="K10" s="34">
+        <v>5.58333333333333</v>
+      </c>
+      <c r="L10" s="32">
+        <v>0.315972222222222</v>
+      </c>
+      <c r="M10" s="34">
+        <v>7.58333333333333</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="38"/>
+    </row>
+    <row r="11" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>108</v>
+      </c>
+      <c r="D11" s="6">
+        <v>12.58</v>
+      </c>
+      <c r="E11" s="6">
+        <v>38</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="G11" s="9">
+        <v>6</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="I11" s="33">
+        <v>7</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0.232638888888889</v>
+      </c>
+      <c r="K11" s="34">
+        <v>5.58333333333333</v>
+      </c>
+      <c r="L11" s="19">
+        <v>0.298611111111111</v>
+      </c>
+      <c r="M11" s="34">
+        <v>7.16666666666667</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="38"/>
+    </row>
+    <row r="12" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>72</v>
+      </c>
+      <c r="D12" s="6">
+        <v>18.4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>24.72</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="G12" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H12" s="10">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="I12" s="33">
+        <v>11.5</v>
+      </c>
+      <c r="J12" s="21">
+        <v>0.420138888888889</v>
+      </c>
+      <c r="K12" s="34">
+        <v>10.0833333333333</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0.496527777777778</v>
+      </c>
+      <c r="M12" s="34">
+        <v>11.9166666666667</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>108</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>15.36</v>
+      </c>
+      <c r="E13" s="6">
+        <v>35.8</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H13" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I13" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J13" s="19">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K13" s="34">
+        <v>5</v>
+      </c>
+      <c r="L13" s="19">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="M13" s="34">
+        <v>7</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>144</v>
+      </c>
+      <c r="C14" s="6">
+        <v>72</v>
+      </c>
+      <c r="D14" s="6">
+        <v>3.84</v>
+      </c>
+      <c r="E14" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G14" s="9">
+        <v>8</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="I14" s="33">
+        <v>9</v>
+      </c>
+      <c r="J14" s="21">
+        <v>0.319444444444444</v>
+      </c>
+      <c r="K14" s="34">
+        <v>7.66666666666667</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0.399305555555556</v>
+      </c>
+      <c r="M14" s="34">
+        <v>9.58333333333333</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="38"/>
+    </row>
+    <row r="15" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A15" s="22">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>360</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>23.16</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2.68</v>
+      </c>
+      <c r="F15" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G15" s="9">
+        <v>11</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="33">
+        <v>12</v>
+      </c>
+      <c r="J15" s="32">
+        <v>0.451388888888889</v>
+      </c>
+      <c r="K15" s="34">
+        <v>10.8333333333333</v>
+      </c>
+      <c r="L15" s="32">
+        <v>0.524305555555556</v>
+      </c>
+      <c r="M15" s="34">
+        <v>12.5833333333333</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="38"/>
+    </row>
+    <row r="16" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A16" s="22">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5">
+        <v>234</v>
+      </c>
+      <c r="C16" s="6">
+        <v>108</v>
+      </c>
+      <c r="D16" s="6">
+        <v>20.66</v>
+      </c>
+      <c r="E16" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="F16" s="21">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I16" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J16" s="32">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K16" s="34">
+        <v>5</v>
+      </c>
+      <c r="L16" s="32">
+        <v>0.288194444444444</v>
+      </c>
+      <c r="M16" s="34">
+        <v>6.91666666666667</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5">
+        <v>252</v>
+      </c>
+      <c r="C17" s="6">
+        <v>180</v>
+      </c>
+      <c r="D17" s="6">
+        <v>21.84</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20.2</v>
+      </c>
+      <c r="F17" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="G17" s="9">
+        <v>9</v>
+      </c>
+      <c r="H17" s="10">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="I17" s="33">
+        <v>10</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0.357638888888889</v>
+      </c>
+      <c r="K17" s="34">
+        <v>8.58333333333333</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0.444444444444444</v>
+      </c>
+      <c r="M17" s="34">
+        <v>10.6666666666667</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5">
+        <v>198</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>29.16</v>
+      </c>
+      <c r="E18" s="6">
+        <v>7.98</v>
+      </c>
+      <c r="F18" s="21">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G18" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I18" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J18" s="32">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K18" s="34">
+        <v>5</v>
+      </c>
+      <c r="L18" s="32">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="M18" s="34">
+        <v>7</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
+        <v>234</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="E19" s="6">
+        <v>12.54</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="G19" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="I19" s="33">
+        <v>8.5</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0.295138888888889</v>
+      </c>
+      <c r="K19" s="34">
+        <v>7.08333333333333</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0.364583333333333</v>
+      </c>
+      <c r="M19" s="34">
+        <v>8.75</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>108</v>
+      </c>
+      <c r="D20" s="6">
+        <v>25.4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>11.8</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G20" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I20" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J20" s="32">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K20" s="34">
+        <v>5</v>
+      </c>
+      <c r="L20" s="32">
+        <v>0.288194444444444</v>
+      </c>
+      <c r="M20" s="34">
+        <v>6.91666666666667</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O20" s="38"/>
+    </row>
+    <row r="21" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="5">
+        <v>72</v>
+      </c>
+      <c r="C21" s="6">
+        <v>36</v>
+      </c>
+      <c r="D21" s="6">
+        <v>12.28</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3.06</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="G21" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="H21" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I21" s="33">
+        <v>9.5</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.336805555555556</v>
+      </c>
+      <c r="K21" s="34">
+        <v>8.08333333333333</v>
+      </c>
+      <c r="L21" s="14">
+        <v>0.413194444444444</v>
+      </c>
+      <c r="M21" s="34">
+        <v>9.91666666666667</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="38"/>
+    </row>
+    <row r="22" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="5">
+        <v>288</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>17.58</v>
+      </c>
+      <c r="E22" s="6">
+        <v>15.34</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G22" s="9">
+        <v>11</v>
+      </c>
+      <c r="H22" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I22" s="33">
+        <v>12</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="K22" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0.524305555555556</v>
+      </c>
+      <c r="M22" s="34">
+        <v>12.5833333333333</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O22" s="38"/>
+    </row>
+    <row r="23" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="5">
+        <v>108</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5.18</v>
+      </c>
+      <c r="E23" s="6">
+        <v>5.34</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="G23" s="9">
+        <v>8</v>
+      </c>
+      <c r="H23" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="I23" s="33">
+        <v>9</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.315972222222222</v>
+      </c>
+      <c r="K23" s="34">
+        <v>7.58333333333333</v>
+      </c>
+      <c r="L23" s="14">
+        <v>0.399305555555556</v>
+      </c>
+      <c r="M23" s="34">
+        <v>9.58333333333333</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O23" s="38"/>
+    </row>
+    <row r="24" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A24" s="27">
+        <v>23</v>
+      </c>
+      <c r="B24" s="5">
+        <v>144</v>
+      </c>
+      <c r="C24" s="6">
+        <v>216</v>
+      </c>
+      <c r="D24" s="6">
+        <v>34.04</v>
+      </c>
+      <c r="E24" s="6">
+        <v>5.12</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="G24" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="I24" s="33">
+        <v>11.5</v>
+      </c>
+      <c r="J24" s="32">
+        <v>0.430555555555556</v>
+      </c>
+      <c r="K24" s="34">
+        <v>10.3333333333333</v>
+      </c>
+      <c r="L24" s="32">
+        <v>0.496527777777778</v>
+      </c>
+      <c r="M24" s="34">
+        <v>11.9166666666667</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O24" s="38"/>
+    </row>
+    <row r="25" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A25" s="29">
+        <v>24</v>
+      </c>
+      <c r="B25" s="29">
+        <v>216</v>
+      </c>
+      <c r="C25" s="15">
+        <v>90</v>
+      </c>
+      <c r="D25" s="6">
+        <v>14.28</v>
+      </c>
+      <c r="E25" s="6">
+        <v>12.66</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.3125</v>
+      </c>
+      <c r="G25" s="9">
+        <v>7.5</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="I25" s="33">
+        <v>8.5</v>
+      </c>
+      <c r="J25" s="21">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="K25" s="34">
+        <v>7</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0.371527777777778</v>
+      </c>
+      <c r="M25" s="34">
+        <v>8.91666666666667</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O25" s="38"/>
+    </row>
+    <row r="26" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="5">
+        <v>72</v>
+      </c>
+      <c r="C26" s="6">
+        <v>36</v>
+      </c>
+      <c r="D26" s="6">
+        <v>36</v>
+      </c>
+      <c r="E26" s="6">
+        <v>16.66</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="G26" s="9">
+        <v>6</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="I26" s="33">
+        <v>7</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0.232638888888889</v>
+      </c>
+      <c r="K26" s="34">
+        <v>5.58333333333333</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0.309027777777778</v>
+      </c>
+      <c r="M26" s="34">
+        <v>7.41666666666667</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="38"/>
+    </row>
+    <row r="27" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="5">
+        <v>126</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>20.4</v>
+      </c>
+      <c r="E27" s="6">
+        <v>32.4</v>
+      </c>
+      <c r="F27" s="37">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G27" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H27" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I27" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K27" s="34">
+        <v>5</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0.288194444444444</v>
+      </c>
+      <c r="M27" s="34">
+        <v>6.91666666666667</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="38"/>
+    </row>
+    <row r="28" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="5">
+        <v>72</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>17.76</v>
+      </c>
+      <c r="E28" s="6">
+        <v>20.7</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="G28" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H28" s="10">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="I28" s="33">
+        <v>11.5</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0.425694444444444</v>
+      </c>
+      <c r="K28" s="34">
+        <v>10.2166666666667</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0.496527777777778</v>
+      </c>
+      <c r="M28" s="34">
+        <v>11.9166666666667</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O28" s="38"/>
+    </row>
+    <row r="29" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A29" s="22">
+        <v>28</v>
+      </c>
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>72</v>
+      </c>
+      <c r="D29" s="6">
+        <v>38</v>
+      </c>
+      <c r="E29" s="6">
+        <v>22.2</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G29" s="9">
+        <v>10</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I29" s="33">
+        <v>11</v>
+      </c>
+      <c r="J29" s="32">
+        <v>0.399305555555556</v>
+      </c>
+      <c r="K29" s="34">
+        <v>9.58333333333333</v>
+      </c>
+      <c r="L29" s="32">
+        <v>0.482638888888889</v>
+      </c>
+      <c r="M29" s="34">
+        <v>11.5833333333333</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O29" s="38"/>
+    </row>
+    <row r="30" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A30" s="22">
+        <v>29</v>
+      </c>
+      <c r="B30" s="5">
+        <v>180</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>29.6</v>
+      </c>
+      <c r="E30" s="6">
+        <v>19.76</v>
+      </c>
+      <c r="F30" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="G30" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="I30" s="33">
+        <v>11.5</v>
+      </c>
+      <c r="J30" s="32">
+        <v>0.427083333333333</v>
+      </c>
+      <c r="K30" s="34">
+        <v>10.25</v>
+      </c>
+      <c r="L30" s="32">
+        <v>0.496527777777778</v>
+      </c>
+      <c r="M30" s="34">
+        <v>11.9166666666667</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O30" s="38"/>
+    </row>
+    <row r="31" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A31" s="23">
+        <v>30</v>
+      </c>
+      <c r="B31" s="5">
+        <v>360</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>35.6</v>
+      </c>
+      <c r="E31" s="6">
+        <v>28.4</v>
+      </c>
+      <c r="F31" s="21">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="G31" s="9">
+        <v>10</v>
+      </c>
+      <c r="H31" s="10">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="I31" s="33">
+        <v>11</v>
+      </c>
+      <c r="J31" s="32">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="K31" s="34">
+        <v>9.5</v>
+      </c>
+      <c r="L31" s="32">
+        <v>0.486111111111111</v>
+      </c>
+      <c r="M31" s="34">
+        <v>11.6666666666667</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O31" s="38"/>
+    </row>
+    <row r="32" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="5">
+        <v>180</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>22.4</v>
+      </c>
+      <c r="E32" s="6">
+        <v>36.6</v>
+      </c>
+      <c r="F32" s="37">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="G32" s="9">
+        <v>5.5</v>
+      </c>
+      <c r="H32" s="10">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="I32" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="J32" s="21">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="K32" s="34">
+        <v>5</v>
+      </c>
+      <c r="L32" s="21">
+        <v>0.284722222222222</v>
+      </c>
+      <c r="M32" s="34">
+        <v>6.83333333333333</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O32" s="38"/>
+    </row>
+    <row r="33" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>108</v>
+      </c>
+      <c r="D33" s="6">
+        <v>19.6</v>
+      </c>
+      <c r="E33" s="6">
+        <v>28.6</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0.354166666666667</v>
+      </c>
+      <c r="G33" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="H33" s="10">
+        <v>0.395833333333333</v>
+      </c>
+      <c r="I33" s="33">
+        <v>9.5</v>
+      </c>
+      <c r="J33" s="21">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="K33" s="34">
+        <v>8</v>
+      </c>
+      <c r="L33" s="21">
+        <v>0.413194444444444</v>
+      </c>
+      <c r="M33" s="34">
+        <v>9.91666666666667</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O33" s="38"/>
+    </row>
+    <row r="34" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="5">
+        <v>252</v>
+      </c>
+      <c r="C34" s="6">
+        <v>18</v>
+      </c>
+      <c r="D34" s="6">
+        <v>27.6</v>
+      </c>
+      <c r="E34" s="6">
+        <v>24.24</v>
+      </c>
+      <c r="F34" s="39">
+        <v>0.270833333333333</v>
+      </c>
+      <c r="G34" s="9">
+        <v>6.5</v>
+      </c>
+      <c r="H34" s="10">
+        <v>0.3125</v>
+      </c>
+      <c r="I34" s="33">
+        <v>7.5</v>
+      </c>
+      <c r="J34" s="21">
+        <v>0.239583333333333</v>
+      </c>
+      <c r="K34" s="34">
+        <v>5.75</v>
+      </c>
+      <c r="L34" s="21">
+        <v>0.329861111111111</v>
+      </c>
+      <c r="M34" s="34">
+        <v>7.91666666666667</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="38"/>
+    </row>
+    <row r="35" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="5">
+        <v>162</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>31.6</v>
+      </c>
+      <c r="E35" s="6">
+        <v>12.72</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="G35" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="H35" s="10">
+        <v>0.479166666666667</v>
+      </c>
+      <c r="I35" s="33">
+        <v>11.5</v>
+      </c>
+      <c r="J35" s="32">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K35" s="34">
+        <v>10</v>
+      </c>
+      <c r="L35" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="M35" s="34">
+        <v>12</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O35" s="38"/>
+    </row>
+    <row r="36" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>54</v>
+      </c>
+      <c r="D36" s="6">
+        <v>37.12</v>
+      </c>
+      <c r="E36" s="6">
+        <v>11.66</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="G36" s="9">
+        <v>6</v>
+      </c>
+      <c r="H36" s="10">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="I36" s="33">
+        <v>7</v>
+      </c>
+      <c r="J36" s="21">
+        <v>0.229166666666667</v>
+      </c>
+      <c r="K36" s="34">
+        <v>5.5</v>
+      </c>
+      <c r="L36" s="21">
+        <v>0.315972222222222</v>
+      </c>
+      <c r="M36" s="34">
+        <v>7.58333333333333</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" s="38"/>
+    </row>
+    <row r="37" ht="25.05" customHeight="1" spans="1:15">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="5">
+        <v>216</v>
+      </c>
+      <c r="C37" s="6">
+        <v>36</v>
+      </c>
+      <c r="D37" s="6">
+        <v>24.2</v>
+      </c>
+      <c r="E37" s="6">
+        <v>16.6</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="G37" s="9">
+        <v>11</v>
+      </c>
+      <c r="H37" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="33">
+        <v>12</v>
+      </c>
+      <c r="J37" s="21">
+        <v>0.4375</v>
+      </c>
+      <c r="K37" s="34">
+        <v>10.5</v>
+      </c>
+      <c r="L37" s="21">
+        <v>0.527777777777778</v>
+      </c>
+      <c r="M37" s="34">
+        <v>12.6666666666667</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O37" s="38"/>
+    </row>
+    <row r="42" ht="29" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O42"/>
@@ -15894,13 +19247,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B37"/>
+      <selection activeCell="B2" sqref="B2:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -16064,7 +19417,7 @@
       </c>
       <c r="Q3">
         <f>VLOOKUP(P3,$A$1:$C$37,2,0)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <f>VLOOKUP(P3,$A$1:$C$37,3,0)</f>
@@ -16076,7 +19429,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="C4" s="6">
         <v>0</v>
@@ -16188,7 +19541,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="C6" s="6">
         <v>90</v>
@@ -16285,7 +19638,7 @@
       <c r="O7" s="38"/>
       <c r="S7">
         <f>SUM(Q2:Q6)</f>
-        <v>1014</v>
+        <v>864</v>
       </c>
       <c r="T7">
         <f>SUM(R2:R6)</f>
@@ -16297,10 +19650,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="5">
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="C8" s="6">
-        <v>200</v>
+        <v>72</v>
       </c>
       <c r="D8" s="15">
         <v>12.42</v>
@@ -16400,11 +19753,11 @@
       </c>
       <c r="Q9">
         <f>VLOOKUP(P9,$A$1:$C$37,2,0)</f>
-        <v>380</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f>VLOOKUP(P9,$A$1:$C$37,3,0)</f>
-        <v>200</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" ht="25.05" customHeight="1" spans="1:18">
@@ -16456,7 +19809,7 @@
       </c>
       <c r="Q10">
         <f>VLOOKUP(P10,$A$1:$C$37,2,0)</f>
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="R10">
         <f>VLOOKUP(P10,$A$1:$C$37,3,0)</f>
@@ -16677,11 +20030,11 @@
       <c r="O14" s="38"/>
       <c r="S14">
         <f>SUM(Q8:Q13)</f>
-        <v>1056</v>
+        <v>648</v>
       </c>
       <c r="T14">
         <f>SUM(R8:R13)</f>
-        <v>308</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" ht="25.05" customHeight="1" spans="1:18">
@@ -16789,7 +20142,7 @@
       </c>
       <c r="Q16">
         <f>VLOOKUP(P16,$A$1:$C$37,2,0)</f>
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="R16">
         <f>VLOOKUP(P16,$A$1:$C$37,3,0)</f>
@@ -16845,7 +20198,7 @@
       </c>
       <c r="Q17">
         <f>VLOOKUP(P17,$A$1:$C$37,2,0)</f>
-        <v>230</v>
+        <v>90</v>
       </c>
       <c r="R17">
         <f>VLOOKUP(P17,$A$1:$C$37,3,0)</f>
@@ -16857,7 +20210,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="5">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -16913,7 +20266,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="5">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -16969,7 +20322,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="5">
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="C20" s="6">
         <v>108</v>
@@ -17066,7 +20419,7 @@
       <c r="O21" s="38"/>
       <c r="S21">
         <f>SUM(Q15:Q20)</f>
-        <v>1020</v>
+        <v>864</v>
       </c>
       <c r="T21">
         <f>SUM(R15:R20)</f>
@@ -17178,7 +20531,7 @@
       </c>
       <c r="Q23">
         <f>VLOOKUP(P23,$A$1:$C$37,2,0)</f>
-        <v>288</v>
+        <v>0</v>
       </c>
       <c r="R23">
         <f>VLOOKUP(P23,$A$1:$C$37,3,0)</f>
@@ -17234,7 +20587,7 @@
       </c>
       <c r="Q24">
         <f>VLOOKUP(P24,$A$1:$C$37,2,0)</f>
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="R24">
         <f>VLOOKUP(P24,$A$1:$C$37,3,0)</f>
@@ -17294,7 +20647,7 @@
       </c>
       <c r="R25">
         <f>VLOOKUP(P25,$A$1:$C$37,3,0)</f>
-        <v>88</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" ht="25.05" customHeight="1" spans="1:18">
@@ -17406,7 +20759,7 @@
       </c>
       <c r="R27">
         <f>VLOOKUP(P27,$A$1:$C$37,3,0)</f>
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" ht="25.05" customHeight="1" spans="1:20">
@@ -17414,7 +20767,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="5">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -17455,11 +20808,11 @@
       <c r="O28" s="38"/>
       <c r="S28">
         <f>SUM(Q22:Q27)</f>
-        <v>1076</v>
+        <v>756</v>
       </c>
       <c r="T28">
         <f>SUM(R22:R27)</f>
-        <v>368</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" ht="25.05" customHeight="1" spans="1:18">
@@ -17635,7 +20988,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="5">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -17750,7 +21103,7 @@
         <v>252</v>
       </c>
       <c r="C34" s="6">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D34" s="6">
         <v>27.6</v>
@@ -17859,7 +21212,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="6">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="D36" s="6">
         <v>37.12</v>
@@ -17900,7 +21253,7 @@
       </c>
       <c r="Q36">
         <f>VLOOKUP(P36,$A$1:$C$37,2,0)</f>
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="R36">
         <f>VLOOKUP(P36,$A$1:$C$37,3,0)</f>
@@ -18018,7 +21371,7 @@
     <row r="42" ht="29" customHeight="1" spans="19:20">
       <c r="S42">
         <f>SUM(Q35:Q41)</f>
-        <v>1080</v>
+        <v>1092</v>
       </c>
       <c r="T42">
         <f>SUM(R35:R41)</f>
@@ -18032,7 +21385,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q42"/>
@@ -19985,7 +23338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q37"/>
@@ -21655,7 +25008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N37"/>
@@ -23306,1657 +26659,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N37"/>
-  <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
-  <cols>
-    <col min="1" max="1" width="12.5585585585586" customWidth="1"/>
-    <col min="2" max="2" width="19.6756756756757" customWidth="1"/>
-    <col min="3" max="3" width="16.027027027027" customWidth="1"/>
-    <col min="4" max="13" width="12.5585585585586" customWidth="1"/>
-    <col min="14" max="14" width="11.5855855855856" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="36" customHeight="1" spans="1:14">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="35">
-        <v>90</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4.52</v>
-      </c>
-      <c r="E2" s="7">
-        <v>30.72</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G2" s="9">
-        <v>12</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="I2" s="33">
-        <v>13</v>
-      </c>
-      <c r="J2" s="21">
-        <v>0.482638888888889</v>
-      </c>
-      <c r="K2" s="34">
-        <v>11.5833333333333</v>
-      </c>
-      <c r="L2" s="21">
-        <v>0.55625</v>
-      </c>
-      <c r="M2" s="34">
-        <v>13.35</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A3" s="11">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>108</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>3.72</v>
-      </c>
-      <c r="E3" s="6">
-        <v>23</v>
-      </c>
-      <c r="F3" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G3" s="9">
-        <v>12</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="I3" s="33">
-        <v>13</v>
-      </c>
-      <c r="J3" s="21">
-        <v>0.473611111111111</v>
-      </c>
-      <c r="K3" s="34">
-        <v>11.3666666666667</v>
-      </c>
-      <c r="L3" s="21">
-        <v>0.561111111111111</v>
-      </c>
-      <c r="M3" s="34">
-        <v>13.4666666666667</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A4" s="11">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5">
-        <v>90</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>8.68</v>
-      </c>
-      <c r="E4" s="6">
-        <v>16</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="G4" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="H4" s="10">
-        <v>0.395833333333334</v>
-      </c>
-      <c r="I4" s="33">
-        <v>9.5</v>
-      </c>
-      <c r="J4" s="21">
-        <v>0.330555555555556</v>
-      </c>
-      <c r="K4" s="34">
-        <v>7.93333333333333</v>
-      </c>
-      <c r="L4" s="21">
-        <v>0.409722222222223</v>
-      </c>
-      <c r="M4" s="34">
-        <v>9.83333333333333</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A5" s="11">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>72</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>8.74</v>
-      </c>
-      <c r="E5" s="6">
-        <v>22.52</v>
-      </c>
-      <c r="F5" s="21">
-        <v>0.4375</v>
-      </c>
-      <c r="G5" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="H5" s="10">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="I5" s="33">
-        <v>11.5</v>
-      </c>
-      <c r="J5" s="10">
-        <v>0.415972222222222</v>
-      </c>
-      <c r="K5" s="34">
-        <v>9.98333333333333</v>
-      </c>
-      <c r="L5" s="10">
-        <v>0.506944444444444</v>
-      </c>
-      <c r="M5" s="34">
-        <v>12.1666666666667</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A6" s="11">
-        <v>5</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>90</v>
-      </c>
-      <c r="D6" s="6">
-        <v>8.66</v>
-      </c>
-      <c r="E6" s="6">
-        <v>32.44</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0.270833333333333</v>
-      </c>
-      <c r="G6" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="H6" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="I6" s="33">
-        <v>7.5</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0.2625</v>
-      </c>
-      <c r="K6" s="34">
-        <v>6.3</v>
-      </c>
-      <c r="L6" s="21">
-        <v>0.334027777777778</v>
-      </c>
-      <c r="M6" s="34">
-        <v>8.01666666666667</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A7" s="11">
-        <v>6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>252</v>
-      </c>
-      <c r="C7" s="6">
-        <v>18</v>
-      </c>
-      <c r="D7" s="6">
-        <v>14.08</v>
-      </c>
-      <c r="E7" s="6">
-        <v>28.5</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="G7" s="9">
-        <v>7</v>
-      </c>
-      <c r="H7" s="10">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="I7" s="33">
-        <v>8</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0.265972222222222</v>
-      </c>
-      <c r="K7" s="34">
-        <v>6.38333333333333</v>
-      </c>
-      <c r="L7" s="21">
-        <v>0.347916666666667</v>
-      </c>
-      <c r="M7" s="34">
-        <v>8.35</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>72</v>
-      </c>
-      <c r="D8" s="15">
-        <v>12.42</v>
-      </c>
-      <c r="E8" s="15">
-        <v>17.76</v>
-      </c>
-      <c r="F8" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G8" s="9">
-        <v>11</v>
-      </c>
-      <c r="H8" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="33">
-        <v>12</v>
-      </c>
-      <c r="J8" s="10">
-        <v>0.444444444444444</v>
-      </c>
-      <c r="K8" s="34">
-        <v>10.6666666666667</v>
-      </c>
-      <c r="L8" s="10">
-        <v>0.522222222222222</v>
-      </c>
-      <c r="M8" s="34">
-        <v>12.5333333333333</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>360</v>
-      </c>
-      <c r="C9" s="6">
-        <v>72</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>29.7</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0.229166666666667</v>
-      </c>
-      <c r="G9" s="9">
-        <v>5.5</v>
-      </c>
-      <c r="H9" s="10">
-        <v>0.270833333333333</v>
-      </c>
-      <c r="I9" s="33">
-        <v>6.5</v>
-      </c>
-      <c r="J9" s="21">
-        <v>0.214583333333333</v>
-      </c>
-      <c r="K9" s="34">
-        <v>5.15</v>
-      </c>
-      <c r="L9" s="21">
-        <v>0.279166666666667</v>
-      </c>
-      <c r="M9" s="34">
-        <v>6.7</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A10" s="16">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>360</v>
-      </c>
-      <c r="C10" s="6">
-        <v>108</v>
-      </c>
-      <c r="D10" s="6">
-        <v>4.6</v>
-      </c>
-      <c r="E10" s="6">
-        <v>34.16</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="G10" s="9">
-        <v>11.5</v>
-      </c>
-      <c r="H10" s="10">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="I10" s="33">
-        <v>12.5</v>
-      </c>
-      <c r="J10" s="32">
-        <v>0.468055555555556</v>
-      </c>
-      <c r="K10" s="34">
-        <v>11.2333333333333</v>
-      </c>
-      <c r="L10" s="32">
-        <v>0.543055555555556</v>
-      </c>
-      <c r="M10" s="34">
-        <v>13.0333333333333</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>108</v>
-      </c>
-      <c r="D11" s="6">
-        <v>12.58</v>
-      </c>
-      <c r="E11" s="6">
-        <v>38</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="G11" s="9">
-        <v>11</v>
-      </c>
-      <c r="H11" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="33">
-        <v>12</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0.450694444444444</v>
-      </c>
-      <c r="K11" s="34">
-        <v>10.8166666666667</v>
-      </c>
-      <c r="L11" s="19">
-        <v>0.522916666666667</v>
-      </c>
-      <c r="M11" s="34">
-        <v>12.55</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>72</v>
-      </c>
-      <c r="D12" s="6">
-        <v>18.4</v>
-      </c>
-      <c r="E12" s="6">
-        <v>24.72</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G12" s="9">
-        <v>10</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I12" s="33">
-        <v>11</v>
-      </c>
-      <c r="J12" s="21">
-        <v>0.409027777777778</v>
-      </c>
-      <c r="K12" s="34">
-        <v>9.81666666666667</v>
-      </c>
-      <c r="L12" s="21">
-        <v>0.469444444444444</v>
-      </c>
-      <c r="M12" s="34">
-        <v>11.2666666666667</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5">
-        <v>108</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0</v>
-      </c>
-      <c r="D13" s="6">
-        <v>15.36</v>
-      </c>
-      <c r="E13" s="6">
-        <v>35.8</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.4375</v>
-      </c>
-      <c r="G13" s="9">
-        <v>10.5</v>
-      </c>
-      <c r="H13" s="10">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="I13" s="33">
-        <v>11.5</v>
-      </c>
-      <c r="J13" s="19">
-        <v>0.429861111111111</v>
-      </c>
-      <c r="K13" s="34">
-        <v>10.3166666666667</v>
-      </c>
-      <c r="L13" s="19">
-        <v>0.491666666666667</v>
-      </c>
-      <c r="M13" s="34">
-        <v>11.8</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>144</v>
-      </c>
-      <c r="C14" s="6">
-        <v>72</v>
-      </c>
-      <c r="D14" s="6">
-        <v>3.84</v>
-      </c>
-      <c r="E14" s="6">
-        <v>12.5</v>
-      </c>
-      <c r="F14" s="21">
-        <v>0.375</v>
-      </c>
-      <c r="G14" s="9">
-        <v>9</v>
-      </c>
-      <c r="H14" s="10">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="I14" s="33">
-        <v>10</v>
-      </c>
-      <c r="J14" s="21">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="K14" s="34">
-        <v>8.5</v>
-      </c>
-      <c r="L14" s="21">
-        <v>0.429166666666667</v>
-      </c>
-      <c r="M14" s="34">
-        <v>10.3</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A15" s="22">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5">
-        <v>360</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>23.16</v>
-      </c>
-      <c r="E15" s="6">
-        <v>2.68</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="G15" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="H15" s="10">
-        <v>0.4375</v>
-      </c>
-      <c r="I15" s="33">
-        <v>10.5</v>
-      </c>
-      <c r="J15" s="32">
-        <v>0.382638888888889</v>
-      </c>
-      <c r="K15" s="34">
-        <v>9.18333333333333</v>
-      </c>
-      <c r="L15" s="32">
-        <v>0.459027777777778</v>
-      </c>
-      <c r="M15" s="34">
-        <v>11.0166666666667</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A16" s="22">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5">
-        <v>234</v>
-      </c>
-      <c r="C16" s="6">
-        <v>108</v>
-      </c>
-      <c r="D16" s="6">
-        <v>20.66</v>
-      </c>
-      <c r="E16" s="6">
-        <v>8.9</v>
-      </c>
-      <c r="F16" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G16" s="9">
-        <v>14</v>
-      </c>
-      <c r="H16" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="I16" s="33">
-        <v>15</v>
-      </c>
-      <c r="J16" s="32">
-        <v>0.563888888888889</v>
-      </c>
-      <c r="K16" s="34">
-        <v>13.5333333333333</v>
-      </c>
-      <c r="L16" s="32">
-        <v>0.643055555555555</v>
-      </c>
-      <c r="M16" s="34">
-        <v>15.4333333333333</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="5">
-        <v>252</v>
-      </c>
-      <c r="C17" s="6">
-        <v>180</v>
-      </c>
-      <c r="D17" s="6">
-        <v>21.84</v>
-      </c>
-      <c r="E17" s="6">
-        <v>20.2</v>
-      </c>
-      <c r="F17" s="21">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="G17" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="H17" s="10">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="I17" s="33">
-        <v>9.5</v>
-      </c>
-      <c r="J17" s="21">
-        <v>0.340277777777778</v>
-      </c>
-      <c r="K17" s="34">
-        <v>8.16666666666667</v>
-      </c>
-      <c r="L17" s="21">
-        <v>0.421527777777778</v>
-      </c>
-      <c r="M17" s="34">
-        <v>10.1166666666667</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5">
-        <v>198</v>
-      </c>
-      <c r="C18" s="6">
-        <v>0</v>
-      </c>
-      <c r="D18" s="6">
-        <v>29.16</v>
-      </c>
-      <c r="E18" s="6">
-        <v>7.98</v>
-      </c>
-      <c r="F18" s="21">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="G18" s="9">
-        <v>14.5</v>
-      </c>
-      <c r="H18" s="10">
-        <v>0.645833333333334</v>
-      </c>
-      <c r="I18" s="33">
-        <v>15.5</v>
-      </c>
-      <c r="J18" s="32">
-        <v>0.590972222222223</v>
-      </c>
-      <c r="K18" s="34">
-        <v>14.1833333333333</v>
-      </c>
-      <c r="L18" s="32">
-        <v>0.669444444444445</v>
-      </c>
-      <c r="M18" s="34">
-        <v>16.0666666666667</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="5">
-        <v>234</v>
-      </c>
-      <c r="C19" s="6">
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <v>9.6</v>
-      </c>
-      <c r="E19" s="6">
-        <v>12.54</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="G19" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="H19" s="10">
-        <v>0.395833333333334</v>
-      </c>
-      <c r="I19" s="33">
-        <v>9.5</v>
-      </c>
-      <c r="J19" s="21">
-        <v>0.329166666666667</v>
-      </c>
-      <c r="K19" s="34">
-        <v>7.9</v>
-      </c>
-      <c r="L19" s="21">
-        <v>0.407638888888889</v>
-      </c>
-      <c r="M19" s="34">
-        <v>9.78333333333333</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0</v>
-      </c>
-      <c r="C20" s="6">
-        <v>108</v>
-      </c>
-      <c r="D20" s="6">
-        <v>25.4</v>
-      </c>
-      <c r="E20" s="6">
-        <v>11.8</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0.583333333333333</v>
-      </c>
-      <c r="G20" s="9">
-        <v>14</v>
-      </c>
-      <c r="H20" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="I20" s="33">
-        <v>15</v>
-      </c>
-      <c r="J20" s="32">
-        <v>0.558333333333333</v>
-      </c>
-      <c r="K20" s="34">
-        <v>13.4</v>
-      </c>
-      <c r="L20" s="32">
-        <v>0.636805555555555</v>
-      </c>
-      <c r="M20" s="34">
-        <v>15.2833333333333</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="5">
-        <v>72</v>
-      </c>
-      <c r="C21" s="6">
-        <v>36</v>
-      </c>
-      <c r="D21" s="6">
-        <v>12.28</v>
-      </c>
-      <c r="E21" s="6">
-        <v>3.06</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="G21" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="H21" s="10">
-        <v>0.4375</v>
-      </c>
-      <c r="I21" s="33">
-        <v>10.5</v>
-      </c>
-      <c r="J21" s="14">
-        <v>0.385416666666666</v>
-      </c>
-      <c r="K21" s="34">
-        <v>9.25</v>
-      </c>
-      <c r="L21" s="14">
-        <v>0.456944444444444</v>
-      </c>
-      <c r="M21" s="34">
-        <v>10.9666666666667</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5">
-        <v>288</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>17.58</v>
-      </c>
-      <c r="E22" s="6">
-        <v>15.34</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0.520833333333333</v>
-      </c>
-      <c r="G22" s="9">
-        <v>12.5</v>
-      </c>
-      <c r="H22" s="10">
-        <v>0.5625</v>
-      </c>
-      <c r="I22" s="33">
-        <v>13.5</v>
-      </c>
-      <c r="J22" s="21">
-        <v>0.499305555555555</v>
-      </c>
-      <c r="K22" s="34">
-        <v>11.9833333333333</v>
-      </c>
-      <c r="L22" s="21">
-        <v>0.588888888888889</v>
-      </c>
-      <c r="M22" s="34">
-        <v>14.1333333333333</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A23" s="11">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5">
-        <v>108</v>
-      </c>
-      <c r="C23" s="6">
-        <v>0</v>
-      </c>
-      <c r="D23" s="6">
-        <v>5.18</v>
-      </c>
-      <c r="E23" s="6">
-        <v>5.34</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="G23" s="9">
-        <v>9.5</v>
-      </c>
-      <c r="H23" s="10">
-        <v>0.4375</v>
-      </c>
-      <c r="I23" s="33">
-        <v>10.5</v>
-      </c>
-      <c r="J23" s="14">
-        <v>0.376388888888889</v>
-      </c>
-      <c r="K23" s="34">
-        <v>9.03333333333333</v>
-      </c>
-      <c r="L23" s="14">
-        <v>0.453472222222222</v>
-      </c>
-      <c r="M23" s="34">
-        <v>10.8833333333333</v>
-      </c>
-      <c r="N23" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A24" s="27">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5">
-        <v>144</v>
-      </c>
-      <c r="C24" s="6">
-        <v>216</v>
-      </c>
-      <c r="D24" s="6">
-        <v>34.04</v>
-      </c>
-      <c r="E24" s="6">
-        <v>5.12</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="G24" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="H24" s="10">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="I24" s="33">
-        <v>9.5</v>
-      </c>
-      <c r="J24" s="32">
-        <v>0.342361111111111</v>
-      </c>
-      <c r="K24" s="34">
-        <v>8.21666666666667</v>
-      </c>
-      <c r="L24" s="32">
-        <v>0.404861111111111</v>
-      </c>
-      <c r="M24" s="34">
-        <v>9.71666666666667</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A25" s="29">
-        <v>24</v>
-      </c>
-      <c r="B25" s="29">
-        <v>216</v>
-      </c>
-      <c r="C25" s="15">
-        <v>90</v>
-      </c>
-      <c r="D25" s="6">
-        <v>14.28</v>
-      </c>
-      <c r="E25" s="6">
-        <v>12.66</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="G25" s="9">
-        <v>8.5</v>
-      </c>
-      <c r="H25" s="10">
-        <v>0.395833333333334</v>
-      </c>
-      <c r="I25" s="33">
-        <v>9.5</v>
-      </c>
-      <c r="J25" s="21">
-        <v>0.334722222222223</v>
-      </c>
-      <c r="K25" s="34">
-        <v>8.03333333333333</v>
-      </c>
-      <c r="L25" s="21">
-        <v>0.404861111111112</v>
-      </c>
-      <c r="M25" s="34">
-        <v>9.71666666666667</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A26" s="11">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5">
-        <v>72</v>
-      </c>
-      <c r="C26" s="6">
-        <v>36</v>
-      </c>
-      <c r="D26" s="6">
-        <v>36</v>
-      </c>
-      <c r="E26" s="6">
-        <v>16.66</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0.625</v>
-      </c>
-      <c r="G26" s="9">
-        <v>15</v>
-      </c>
-      <c r="H26" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I26" s="33">
-        <v>16</v>
-      </c>
-      <c r="J26" s="21">
-        <v>0.609722222222222</v>
-      </c>
-      <c r="K26" s="34">
-        <v>14.6333333333333</v>
-      </c>
-      <c r="L26" s="21">
-        <v>0.689583333333333</v>
-      </c>
-      <c r="M26" s="34">
-        <v>16.55</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A27" s="11">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5">
-        <v>126</v>
-      </c>
-      <c r="C27" s="6">
-        <v>0</v>
-      </c>
-      <c r="D27" s="6">
-        <v>20.4</v>
-      </c>
-      <c r="E27" s="6">
-        <v>32.4</v>
-      </c>
-      <c r="F27" s="37">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G27" s="9">
-        <v>10</v>
-      </c>
-      <c r="H27" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I27" s="33">
-        <v>11</v>
-      </c>
-      <c r="J27" s="21">
-        <v>0.390972222222222</v>
-      </c>
-      <c r="K27" s="34">
-        <v>9.38333333333333</v>
-      </c>
-      <c r="L27" s="21">
-        <v>0.48125</v>
-      </c>
-      <c r="M27" s="34">
-        <v>11.55</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A28" s="11">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5">
-        <v>72</v>
-      </c>
-      <c r="C28" s="6">
-        <v>0</v>
-      </c>
-      <c r="D28" s="6">
-        <v>17.76</v>
-      </c>
-      <c r="E28" s="6">
-        <v>20.7</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0.479166666666667</v>
-      </c>
-      <c r="G28" s="9">
-        <v>11.5</v>
-      </c>
-      <c r="H28" s="10">
-        <v>0.520833333333334</v>
-      </c>
-      <c r="I28" s="33">
-        <v>12.5</v>
-      </c>
-      <c r="J28" s="21">
-        <v>0.463194444444445</v>
-      </c>
-      <c r="K28" s="34">
-        <v>11.1166666666667</v>
-      </c>
-      <c r="L28" s="21">
-        <v>0.547222222222223</v>
-      </c>
-      <c r="M28" s="34">
-        <v>13.1333333333333</v>
-      </c>
-      <c r="N28" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A29" s="22">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5">
-        <v>0</v>
-      </c>
-      <c r="C29" s="6">
-        <v>72</v>
-      </c>
-      <c r="D29" s="6">
-        <v>38</v>
-      </c>
-      <c r="E29" s="6">
-        <v>22.2</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0.270833333333333</v>
-      </c>
-      <c r="G29" s="9">
-        <v>6.5</v>
-      </c>
-      <c r="H29" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="I29" s="33">
-        <v>7.5</v>
-      </c>
-      <c r="J29" s="32">
-        <v>0.263194444444444</v>
-      </c>
-      <c r="K29" s="34">
-        <v>6.31666666666667</v>
-      </c>
-      <c r="L29" s="32">
-        <v>0.334027777777778</v>
-      </c>
-      <c r="M29" s="34">
-        <v>8.01666666666667</v>
-      </c>
-      <c r="N29" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A30" s="22">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5">
-        <v>180</v>
-      </c>
-      <c r="C30" s="6">
-        <v>0</v>
-      </c>
-      <c r="D30" s="6">
-        <v>29.6</v>
-      </c>
-      <c r="E30" s="6">
-        <v>19.76</v>
-      </c>
-      <c r="F30" s="21">
-        <v>0.3125</v>
-      </c>
-      <c r="G30" s="9">
-        <v>7.5</v>
-      </c>
-      <c r="H30" s="10">
-        <v>0.354166666666667</v>
-      </c>
-      <c r="I30" s="33">
-        <v>8.5</v>
-      </c>
-      <c r="J30" s="32">
-        <v>0.289583333333333</v>
-      </c>
-      <c r="K30" s="34">
-        <v>6.95</v>
-      </c>
-      <c r="L30" s="32">
-        <v>0.378472222222222</v>
-      </c>
-      <c r="M30" s="34">
-        <v>9.08333333333333</v>
-      </c>
-      <c r="N30" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A31" s="23">
-        <v>30</v>
-      </c>
-      <c r="B31" s="5">
-        <v>360</v>
-      </c>
-      <c r="C31" s="6">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6">
-        <v>35.6</v>
-      </c>
-      <c r="E31" s="6">
-        <v>28.4</v>
-      </c>
-      <c r="F31" s="21">
-        <v>0.229166666666667</v>
-      </c>
-      <c r="G31" s="9">
-        <v>5.5</v>
-      </c>
-      <c r="H31" s="10">
-        <v>0.270833333333333</v>
-      </c>
-      <c r="I31" s="33">
-        <v>6.5</v>
-      </c>
-      <c r="J31" s="32">
-        <v>0.211111111111111</v>
-      </c>
-      <c r="K31" s="34">
-        <v>5.06666666666667</v>
-      </c>
-      <c r="L31" s="32">
-        <v>0.283333333333333</v>
-      </c>
-      <c r="M31" s="34">
-        <v>6.8</v>
-      </c>
-      <c r="N31" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A32" s="5">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5">
-        <v>180</v>
-      </c>
-      <c r="C32" s="6">
-        <v>0</v>
-      </c>
-      <c r="D32" s="6">
-        <v>22.4</v>
-      </c>
-      <c r="E32" s="6">
-        <v>36.6</v>
-      </c>
-      <c r="F32" s="37">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="G32" s="9">
-        <v>10</v>
-      </c>
-      <c r="H32" s="10">
-        <v>0.458333333333333</v>
-      </c>
-      <c r="I32" s="33">
-        <v>11</v>
-      </c>
-      <c r="J32" s="21">
-        <v>0.403472222222222</v>
-      </c>
-      <c r="K32" s="34">
-        <v>9.68333333333333</v>
-      </c>
-      <c r="L32" s="21">
-        <v>0.480555555555556</v>
-      </c>
-      <c r="M32" s="34">
-        <v>11.5333333333333</v>
-      </c>
-      <c r="N32" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A33" s="5">
-        <v>32</v>
-      </c>
-      <c r="B33" s="5">
-        <v>0</v>
-      </c>
-      <c r="C33" s="6">
-        <v>108</v>
-      </c>
-      <c r="D33" s="6">
-        <v>19.6</v>
-      </c>
-      <c r="E33" s="6">
-        <v>28.6</v>
-      </c>
-      <c r="F33" s="21">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="G33" s="9">
-        <v>8</v>
-      </c>
-      <c r="H33" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="I33" s="33">
-        <v>9</v>
-      </c>
-      <c r="J33" s="21">
-        <v>0.319444444444444</v>
-      </c>
-      <c r="K33" s="34">
-        <v>7.66666666666667</v>
-      </c>
-      <c r="L33" s="21">
-        <v>0.395833333333333</v>
-      </c>
-      <c r="M33" s="34">
-        <v>9.5</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A34" s="5">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5">
-        <v>252</v>
-      </c>
-      <c r="C34" s="6">
-        <v>18</v>
-      </c>
-      <c r="D34" s="6">
-        <v>27.6</v>
-      </c>
-      <c r="E34" s="6">
-        <v>24.24</v>
-      </c>
-      <c r="F34" s="21">
-        <v>0.645833333333333</v>
-      </c>
-      <c r="G34" s="9">
-        <v>15.5</v>
-      </c>
-      <c r="H34" s="10">
-        <v>0.6875</v>
-      </c>
-      <c r="I34" s="33">
-        <v>16.5</v>
-      </c>
-      <c r="J34" s="21">
-        <v>0.624305555555555</v>
-      </c>
-      <c r="K34" s="34">
-        <v>14.9833333333333</v>
-      </c>
-      <c r="L34" s="21">
-        <v>0.695138888888889</v>
-      </c>
-      <c r="M34" s="34">
-        <v>16.6833333333333</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A35" s="5">
-        <v>34</v>
-      </c>
-      <c r="B35" s="5">
-        <v>162</v>
-      </c>
-      <c r="C35" s="6">
-        <v>0</v>
-      </c>
-      <c r="D35" s="6">
-        <v>31.6</v>
-      </c>
-      <c r="E35" s="6">
-        <v>12.72</v>
-      </c>
-      <c r="F35" s="21">
-        <v>0.604166666666667</v>
-      </c>
-      <c r="G35" s="9">
-        <v>14.5</v>
-      </c>
-      <c r="H35" s="10">
-        <v>0.645833333333334</v>
-      </c>
-      <c r="I35" s="33">
-        <v>15.5</v>
-      </c>
-      <c r="J35" s="32">
-        <v>0.588194444444445</v>
-      </c>
-      <c r="K35" s="34">
-        <v>14.1166666666667</v>
-      </c>
-      <c r="L35" s="32">
-        <v>0.663194444444445</v>
-      </c>
-      <c r="M35" s="34">
-        <v>15.9166666666667</v>
-      </c>
-      <c r="N35" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A36" s="5">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6">
-        <v>54</v>
-      </c>
-      <c r="D36" s="6">
-        <v>37.12</v>
-      </c>
-      <c r="E36" s="6">
-        <v>11.66</v>
-      </c>
-      <c r="F36" s="21">
-        <v>0.625</v>
-      </c>
-      <c r="G36" s="9">
-        <v>15</v>
-      </c>
-      <c r="H36" s="10">
-        <v>0.666666666666667</v>
-      </c>
-      <c r="I36" s="33">
-        <v>16</v>
-      </c>
-      <c r="J36" s="21">
-        <v>0.602083333333333</v>
-      </c>
-      <c r="K36" s="34">
-        <v>14.45</v>
-      </c>
-      <c r="L36" s="21">
-        <v>0.691666666666667</v>
-      </c>
-      <c r="M36" s="34">
-        <v>16.6</v>
-      </c>
-      <c r="N36" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" ht="25.05" customHeight="1" spans="1:14">
-      <c r="A37" s="5">
-        <v>36</v>
-      </c>
-      <c r="B37" s="5">
-        <v>216</v>
-      </c>
-      <c r="C37" s="6">
-        <v>36</v>
-      </c>
-      <c r="D37" s="6">
-        <v>24.2</v>
-      </c>
-      <c r="E37" s="6">
-        <v>16.6</v>
-      </c>
-      <c r="F37" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G37" s="9">
-        <v>12</v>
-      </c>
-      <c r="H37" s="10">
-        <v>0.541666666666667</v>
-      </c>
-      <c r="I37" s="33">
-        <v>13</v>
-      </c>
-      <c r="J37" s="21">
-        <v>0.486805555555556</v>
-      </c>
-      <c r="K37" s="34">
-        <v>11.6833333333333</v>
-      </c>
-      <c r="L37" s="21">
-        <v>0.569444444444444</v>
-      </c>
-      <c r="M37" s="34">
-        <v>13.6666666666667</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>